--- a/org/sabae-jinko.files/chikubetsu-jinko-setaisu.xlsx
+++ b/org/sabae-jinko.files/chikubetsu-jinko-setaisu.xlsx
@@ -1,51 +1,66 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27328"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Odani.Masayuki\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\fs01\Docs_2023\Gyosei\統計\8_HP\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{57E90477-0DBB-410D-B182-06C11E657F82}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="75" windowWidth="16755" windowHeight="11385" tabRatio="949"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="28215" windowHeight="15840" tabRatio="949" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="R4.4.1" sheetId="41" r:id="rId1"/>
-    <sheet name="R3.4.1" sheetId="40" r:id="rId2"/>
-    <sheet name="R2.4.1" sheetId="39" r:id="rId3"/>
-    <sheet name="H31.4.1" sheetId="38" r:id="rId4"/>
-    <sheet name="H30.4.1" sheetId="37" r:id="rId5"/>
-    <sheet name="H29.4.1" sheetId="36" r:id="rId6"/>
-    <sheet name="H28.4.1" sheetId="35" r:id="rId7"/>
-    <sheet name="H27.4.1" sheetId="34" r:id="rId8"/>
-    <sheet name="H26.4.1" sheetId="33" r:id="rId9"/>
-    <sheet name="H25.4.1" sheetId="32" r:id="rId10"/>
-    <sheet name="H24.4.1" sheetId="31" r:id="rId11"/>
-    <sheet name="H23.4.1" sheetId="30" r:id="rId12"/>
-    <sheet name="H22.4.1" sheetId="29" r:id="rId13"/>
-    <sheet name="H21.4.1" sheetId="28" r:id="rId14"/>
-    <sheet name="H20.4.1" sheetId="2" r:id="rId15"/>
-    <sheet name="H19.4.1" sheetId="15" r:id="rId16"/>
-    <sheet name="H18.4.1" sheetId="26" r:id="rId17"/>
-    <sheet name="H17.4.1" sheetId="25" r:id="rId18"/>
-    <sheet name="H16.4.1" sheetId="24" r:id="rId19"/>
-    <sheet name="H15.4.1" sheetId="23" r:id="rId20"/>
+    <sheet name="R5.4.1 " sheetId="42" r:id="rId1"/>
+    <sheet name="R4.4.1" sheetId="41" r:id="rId2"/>
+    <sheet name="R3.4.1" sheetId="40" r:id="rId3"/>
+    <sheet name="R2.4.1" sheetId="39" r:id="rId4"/>
+    <sheet name="H31.4.1" sheetId="38" r:id="rId5"/>
+    <sheet name="H30.4.1" sheetId="37" r:id="rId6"/>
+    <sheet name="H29.4.1" sheetId="36" r:id="rId7"/>
+    <sheet name="H28.4.1" sheetId="35" r:id="rId8"/>
+    <sheet name="H27.4.1" sheetId="34" r:id="rId9"/>
+    <sheet name="H26.4.1" sheetId="33" r:id="rId10"/>
+    <sheet name="H25.4.1" sheetId="32" r:id="rId11"/>
+    <sheet name="H24.4.1" sheetId="31" r:id="rId12"/>
+    <sheet name="H23.4.1" sheetId="30" r:id="rId13"/>
+    <sheet name="H22.4.1" sheetId="29" r:id="rId14"/>
+    <sheet name="H21.4.1" sheetId="28" r:id="rId15"/>
+    <sheet name="H20.4.1" sheetId="2" r:id="rId16"/>
+    <sheet name="H19.4.1" sheetId="15" r:id="rId17"/>
+    <sheet name="H18.4.1" sheetId="26" r:id="rId18"/>
+    <sheet name="H17.4.1" sheetId="25" r:id="rId19"/>
+    <sheet name="H16.4.1" sheetId="24" r:id="rId20"/>
+    <sheet name="H15.4.1" sheetId="23" r:id="rId21"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm.Print_Area" localSheetId="6">'H28.4.1'!$A$1:$N$29</definedName>
-    <definedName name="_xlnm.Print_Area" localSheetId="5">'H29.4.1'!$A$1:$N$29</definedName>
-    <definedName name="_xlnm.Print_Area" localSheetId="4">'H30.4.1'!$A$1:$N$29</definedName>
-    <definedName name="_xlnm.Print_Area" localSheetId="3">'H31.4.1'!$A$1:$N$29</definedName>
-    <definedName name="_xlnm.Print_Area" localSheetId="2">'R2.4.1'!$A$1:$N$29</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="7">'H28.4.1'!$A$1:$N$29</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="6">'H29.4.1'!$A$1:$N$29</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="5">'H30.4.1'!$A$1:$N$29</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="4">'H31.4.1'!$A$1:$N$29</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="3">'R2.4.1'!$A$1:$N$29</definedName>
   </definedNames>
-  <calcPr calcId="152511"/>
+  <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1269" uniqueCount="48">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1341" uniqueCount="49">
   <si>
     <t>地区名</t>
   </si>
@@ -626,11 +641,30 @@
     </rPh>
     <phoneticPr fontId="2"/>
   </si>
+  <si>
+    <t>令和5年4月1日現在</t>
+    <rPh sb="0" eb="2">
+      <t>レイワ</t>
+    </rPh>
+    <rPh sb="3" eb="4">
+      <t>ネン</t>
+    </rPh>
+    <rPh sb="5" eb="6">
+      <t>ツキ</t>
+    </rPh>
+    <rPh sb="7" eb="8">
+      <t>ニチ</t>
+    </rPh>
+    <rPh sb="8" eb="10">
+      <t>ゲンザイ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="15">
     <font>
       <sz val="11"/>
@@ -1095,7 +1129,7 @@
     <xf numFmtId="38" fontId="9" fillId="0" borderId="2" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="4" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="4" applyFont="1"/>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="4" applyFont="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
@@ -1112,7 +1146,7 @@
     <xf numFmtId="38" fontId="3" fillId="2" borderId="7" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -1121,13 +1155,13 @@
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -1139,7 +1173,7 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1178,14 +1212,14 @@
   </cellXfs>
   <cellStyles count="9">
     <cellStyle name="桁区切り" xfId="1" builtinId="6"/>
-    <cellStyle name="桁区切り 2" xfId="2"/>
+    <cellStyle name="桁区切り 2" xfId="2" xr:uid="{00000000-0005-0000-0000-000001000000}"/>
     <cellStyle name="標準" xfId="0" builtinId="0"/>
-    <cellStyle name="標準 2" xfId="3"/>
-    <cellStyle name="標準 3" xfId="4"/>
-    <cellStyle name="標準_平成15年４月1日" xfId="5"/>
-    <cellStyle name="標準_平成16年4月1日" xfId="6"/>
-    <cellStyle name="標準_平成17年4月1日" xfId="7"/>
-    <cellStyle name="標準_平成18年4月1日" xfId="8"/>
+    <cellStyle name="標準 2" xfId="3" xr:uid="{00000000-0005-0000-0000-000003000000}"/>
+    <cellStyle name="標準 3" xfId="4" xr:uid="{00000000-0005-0000-0000-000004000000}"/>
+    <cellStyle name="標準_平成15年４月1日" xfId="5" xr:uid="{00000000-0005-0000-0000-000005000000}"/>
+    <cellStyle name="標準_平成16年4月1日" xfId="6" xr:uid="{00000000-0005-0000-0000-000006000000}"/>
+    <cellStyle name="標準_平成17年4月1日" xfId="7" xr:uid="{00000000-0005-0000-0000-000007000000}"/>
+    <cellStyle name="標準_平成18年4月1日" xfId="8" xr:uid="{00000000-0005-0000-0000-000008000000}"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -1201,9 +1235,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office テーマ">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme 2007 - 2010">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2007 - 2010">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -1241,9 +1275,9 @@
         <a:srgbClr val="800080"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2007 - 2010">
       <a:majorFont>
-        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
+        <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -1278,7 +1312,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -1313,7 +1347,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2007 - 2010">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -1486,11 +1520,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B0B84731-A99B-49BE-B8A2-60868AB04AA2}">
   <dimension ref="A1:N29"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C6" sqref="C6"/>
+      <selection activeCell="A27" sqref="A27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -1528,7 +1562,7 @@
       <c r="H2" s="91"/>
       <c r="I2" s="91"/>
       <c r="L2" s="92" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
     </row>
     <row r="3" spans="1:14" ht="18.75" customHeight="1">
@@ -1582,34 +1616,34 @@
         <v>6</v>
       </c>
       <c r="C6" s="74">
-        <v>4966</v>
+        <v>5005</v>
       </c>
       <c r="D6" s="75">
-        <v>6234</v>
+        <v>6153</v>
       </c>
       <c r="E6" s="75">
-        <v>6591</v>
+        <v>6558</v>
       </c>
       <c r="F6" s="80">
         <f>SUM(D6:E6)</f>
-        <v>12825</v>
+        <v>12711</v>
       </c>
       <c r="H6" s="4"/>
       <c r="I6" s="9" t="s">
         <v>6</v>
       </c>
       <c r="J6" s="79">
-        <v>3591</v>
+        <v>3579</v>
       </c>
       <c r="K6" s="79">
-        <v>4865</v>
+        <v>4803</v>
       </c>
       <c r="L6" s="79">
-        <v>4981</v>
+        <v>4949</v>
       </c>
       <c r="M6" s="80">
         <f>SUM(K6:L6)</f>
-        <v>9846</v>
+        <v>9752</v>
       </c>
     </row>
     <row r="7" spans="1:14" s="1" customFormat="1" ht="18.75" customHeight="1">
@@ -1620,17 +1654,17 @@
         <v>8</v>
       </c>
       <c r="C7" s="79">
-        <v>181</v>
+        <v>137</v>
       </c>
       <c r="D7" s="79">
-        <v>113</v>
+        <v>79</v>
       </c>
       <c r="E7" s="79">
-        <v>143</v>
+        <v>118</v>
       </c>
       <c r="F7" s="80">
         <f>SUM(D7:E7)</f>
-        <v>256</v>
+        <v>197</v>
       </c>
       <c r="H7" s="10" t="s">
         <v>9</v>
@@ -1639,17 +1673,17 @@
         <v>8</v>
       </c>
       <c r="J7" s="79">
-        <v>106</v>
+        <v>110</v>
       </c>
       <c r="K7" s="79">
-        <v>76</v>
+        <v>82</v>
       </c>
       <c r="L7" s="79">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="M7" s="80">
         <f t="shared" ref="M7:M15" si="0">SUM(K7:L7)</f>
-        <v>157</v>
+        <v>165</v>
       </c>
     </row>
     <row r="8" spans="1:14" s="1" customFormat="1" ht="18.75" customHeight="1">
@@ -1658,7 +1692,7 @@
         <v>44</v>
       </c>
       <c r="C8" s="79">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D8" s="84"/>
       <c r="E8" s="84"/>
@@ -1668,7 +1702,7 @@
         <v>44</v>
       </c>
       <c r="J8" s="79">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="K8" s="84"/>
       <c r="L8" s="84"/>
@@ -1681,19 +1715,19 @@
       </c>
       <c r="C9" s="80">
         <f>SUM(C6:C8)</f>
-        <v>5174</v>
+        <v>5170</v>
       </c>
       <c r="D9" s="80">
         <f>SUM(D6:D7)</f>
-        <v>6347</v>
+        <v>6232</v>
       </c>
       <c r="E9" s="80">
         <f>SUM(E6:E7)</f>
-        <v>6734</v>
+        <v>6676</v>
       </c>
       <c r="F9" s="80">
         <f>SUM(F6:F7)</f>
-        <v>13081</v>
+        <v>12908</v>
       </c>
       <c r="H9" s="11"/>
       <c r="I9" s="9" t="s">
@@ -1701,19 +1735,19 @@
       </c>
       <c r="J9" s="80">
         <f>SUM(J6:J8)</f>
-        <v>3729</v>
+        <v>3720</v>
       </c>
       <c r="K9" s="80">
         <f>SUM(K6:K7)</f>
-        <v>4941</v>
+        <v>4885</v>
       </c>
       <c r="L9" s="80">
         <f>SUM(L6:L7)</f>
-        <v>5062</v>
+        <v>5032</v>
       </c>
       <c r="M9" s="80">
         <f t="shared" si="0"/>
-        <v>10003</v>
+        <v>9917</v>
       </c>
     </row>
     <row r="10" spans="1:14" s="1" customFormat="1" ht="18.75" customHeight="1">
@@ -1722,34 +1756,34 @@
         <v>6</v>
       </c>
       <c r="C10" s="79">
-        <v>1939</v>
+        <v>1926</v>
       </c>
       <c r="D10" s="79">
-        <v>2624</v>
+        <v>2585</v>
       </c>
       <c r="E10" s="79">
-        <v>2713</v>
+        <v>2648</v>
       </c>
       <c r="F10" s="80">
         <f>SUM(D10:E10)</f>
-        <v>5337</v>
+        <v>5233</v>
       </c>
       <c r="H10" s="4"/>
       <c r="I10" s="9" t="s">
         <v>6</v>
       </c>
       <c r="J10" s="79">
-        <v>2314</v>
+        <v>2360</v>
       </c>
       <c r="K10" s="79">
-        <v>3453</v>
+        <v>3475</v>
       </c>
       <c r="L10" s="79">
-        <v>3566</v>
+        <v>3578</v>
       </c>
       <c r="M10" s="80">
         <f t="shared" si="0"/>
-        <v>7019</v>
+        <v>7053</v>
       </c>
     </row>
     <row r="11" spans="1:14" s="1" customFormat="1" ht="18.75" customHeight="1">
@@ -1760,17 +1794,17 @@
         <v>8</v>
       </c>
       <c r="C11" s="79">
-        <v>88</v>
+        <v>70</v>
       </c>
       <c r="D11" s="79">
-        <v>70</v>
+        <v>48</v>
       </c>
       <c r="E11" s="79">
-        <v>78</v>
+        <v>59</v>
       </c>
       <c r="F11" s="80">
         <f>SUM(D11:E11)</f>
-        <v>148</v>
+        <v>107</v>
       </c>
       <c r="H11" s="10" t="s">
         <v>12</v>
@@ -1779,17 +1813,17 @@
         <v>8</v>
       </c>
       <c r="J11" s="79">
-        <v>28</v>
+        <v>39</v>
       </c>
       <c r="K11" s="79">
-        <v>18</v>
+        <v>30</v>
       </c>
       <c r="L11" s="79">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="M11" s="80">
         <f t="shared" si="0"/>
-        <v>46</v>
+        <v>61</v>
       </c>
     </row>
     <row r="12" spans="1:14" s="1" customFormat="1" ht="18.75" customHeight="1">
@@ -1798,7 +1832,7 @@
         <v>44</v>
       </c>
       <c r="C12" s="79">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="D12" s="84"/>
       <c r="E12" s="84"/>
@@ -1808,7 +1842,7 @@
         <v>44</v>
       </c>
       <c r="J12" s="79">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="K12" s="84"/>
       <c r="L12" s="84"/>
@@ -1821,19 +1855,19 @@
       </c>
       <c r="C13" s="80">
         <f>SUM(C10:C12)</f>
-        <v>2045</v>
+        <v>2015</v>
       </c>
       <c r="D13" s="80">
         <f>SUM(D10:D11)</f>
-        <v>2694</v>
+        <v>2633</v>
       </c>
       <c r="E13" s="80">
         <f>SUM(E10:E11)</f>
-        <v>2791</v>
+        <v>2707</v>
       </c>
       <c r="F13" s="80">
         <f>SUM(F10:F11)</f>
-        <v>5485</v>
+        <v>5340</v>
       </c>
       <c r="H13" s="11"/>
       <c r="I13" s="9" t="s">
@@ -1841,19 +1875,19 @@
       </c>
       <c r="J13" s="78">
         <f>SUM(J10:J12)</f>
-        <v>2355</v>
+        <v>2411</v>
       </c>
       <c r="K13" s="78">
         <f>SUM(K10:K11)</f>
-        <v>3471</v>
+        <v>3505</v>
       </c>
       <c r="L13" s="78">
         <f>SUM(L10:L11)</f>
-        <v>3594</v>
+        <v>3609</v>
       </c>
       <c r="M13" s="78">
         <f t="shared" si="0"/>
-        <v>7065</v>
+        <v>7114</v>
       </c>
     </row>
     <row r="14" spans="1:14" s="1" customFormat="1" ht="18.75" customHeight="1">
@@ -1862,34 +1896,34 @@
         <v>6</v>
       </c>
       <c r="C14" s="79">
-        <v>5847</v>
+        <v>5885</v>
       </c>
       <c r="D14" s="79">
-        <v>7595</v>
+        <v>7512</v>
       </c>
       <c r="E14" s="79">
-        <v>8032</v>
+        <v>7942</v>
       </c>
       <c r="F14" s="80">
         <f>SUM(D14:E14)</f>
-        <v>15627</v>
+        <v>15454</v>
       </c>
       <c r="H14" s="4"/>
       <c r="I14" s="9" t="s">
         <v>6</v>
       </c>
       <c r="J14" s="79">
-        <v>1665</v>
+        <v>1677</v>
       </c>
       <c r="K14" s="79">
-        <v>2262</v>
+        <v>2248</v>
       </c>
       <c r="L14" s="79">
-        <v>2385</v>
+        <v>2372</v>
       </c>
       <c r="M14" s="80">
         <f>SUM(K14:L14)</f>
-        <v>4647</v>
+        <v>4620</v>
       </c>
     </row>
     <row r="15" spans="1:14" s="1" customFormat="1" ht="18.75" customHeight="1">
@@ -1900,17 +1934,17 @@
         <v>8</v>
       </c>
       <c r="C15" s="79">
-        <v>218</v>
+        <v>210</v>
       </c>
       <c r="D15" s="79">
-        <v>199</v>
+        <v>186</v>
       </c>
       <c r="E15" s="79">
-        <v>184</v>
+        <v>175</v>
       </c>
       <c r="F15" s="80">
         <f>SUM(D15:E15)</f>
-        <v>383</v>
+        <v>361</v>
       </c>
       <c r="H15" s="10" t="s">
         <v>14</v>
@@ -1919,17 +1953,17 @@
         <v>8</v>
       </c>
       <c r="J15" s="79">
-        <v>15</v>
+        <v>22</v>
       </c>
       <c r="K15" s="79">
-        <v>9</v>
+        <v>14</v>
       </c>
       <c r="L15" s="79">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="M15" s="80">
         <f t="shared" si="0"/>
-        <v>24</v>
+        <v>30</v>
       </c>
       <c r="N15" s="12"/>
     </row>
@@ -1963,19 +1997,19 @@
       </c>
       <c r="C17" s="80">
         <f>SUM(C14:C16)</f>
-        <v>6125</v>
+        <v>6155</v>
       </c>
       <c r="D17" s="80">
         <f>SUM(D14:D15)</f>
-        <v>7794</v>
+        <v>7698</v>
       </c>
       <c r="E17" s="80">
         <f>SUM(E14:E15)</f>
-        <v>8216</v>
+        <v>8117</v>
       </c>
       <c r="F17" s="80">
         <f>SUM(F14:F15)</f>
-        <v>16010</v>
+        <v>15815</v>
       </c>
       <c r="H17" s="11"/>
       <c r="I17" s="9" t="s">
@@ -1983,19 +2017,19 @@
       </c>
       <c r="J17" s="80">
         <f>SUM(J14:J16)</f>
-        <v>1686</v>
+        <v>1705</v>
       </c>
       <c r="K17" s="80">
         <f>SUM(K14:K15)</f>
-        <v>2271</v>
+        <v>2262</v>
       </c>
       <c r="L17" s="80">
         <f>SUM(L14:L15)</f>
-        <v>2400</v>
+        <v>2388</v>
       </c>
       <c r="M17" s="80">
         <f>SUM(K17:L17)</f>
-        <v>4671</v>
+        <v>4650</v>
       </c>
     </row>
     <row r="18" spans="1:13" s="1" customFormat="1" ht="18.75" customHeight="1">
@@ -2004,34 +2038,34 @@
         <v>6</v>
       </c>
       <c r="C18" s="79">
-        <v>1440</v>
+        <v>1477</v>
       </c>
       <c r="D18" s="79">
-        <v>2167</v>
+        <v>2189</v>
       </c>
       <c r="E18" s="79">
-        <v>2264</v>
+        <v>2298</v>
       </c>
       <c r="F18" s="80">
         <f>SUM(D18:E18)</f>
-        <v>4431</v>
+        <v>4487</v>
       </c>
       <c r="H18" s="4"/>
       <c r="I18" s="9" t="s">
         <v>6</v>
       </c>
       <c r="J18" s="81">
-        <v>820</v>
+        <v>823</v>
       </c>
       <c r="K18" s="81">
-        <v>1264</v>
+        <v>1256</v>
       </c>
       <c r="L18" s="81">
-        <v>1413</v>
+        <v>1383</v>
       </c>
       <c r="M18" s="80">
         <f>SUM(K18:L18)</f>
-        <v>2677</v>
+        <v>2639</v>
       </c>
     </row>
     <row r="19" spans="1:13" s="1" customFormat="1" ht="18.75" customHeight="1">
@@ -2042,17 +2076,17 @@
         <v>8</v>
       </c>
       <c r="C19" s="79">
-        <v>62</v>
+        <v>46</v>
       </c>
       <c r="D19" s="79">
-        <v>57</v>
+        <v>46</v>
       </c>
       <c r="E19" s="79">
-        <v>54</v>
+        <v>44</v>
       </c>
       <c r="F19" s="80">
         <f>SUM(D19:E19)</f>
-        <v>111</v>
+        <v>90</v>
       </c>
       <c r="H19" s="10" t="s">
         <v>16</v>
@@ -2061,17 +2095,17 @@
         <v>8</v>
       </c>
       <c r="J19" s="79">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="K19" s="79">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="L19" s="79">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="M19" s="80">
         <f>SUM(K19:L19)</f>
-        <v>13</v>
+        <v>10</v>
       </c>
     </row>
     <row r="20" spans="1:13" s="1" customFormat="1" ht="18.75" customHeight="1">
@@ -2090,7 +2124,7 @@
         <v>44</v>
       </c>
       <c r="J20" s="79">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="K20" s="84"/>
       <c r="L20" s="84"/>
@@ -2103,19 +2137,19 @@
       </c>
       <c r="C21" s="80">
         <f>SUM(C18:C20)</f>
-        <v>1522</v>
+        <v>1543</v>
       </c>
       <c r="D21" s="80">
         <f>SUM(D18:D19)</f>
-        <v>2224</v>
+        <v>2235</v>
       </c>
       <c r="E21" s="80">
         <f>SUM(E18:E19)</f>
-        <v>2318</v>
+        <v>2342</v>
       </c>
       <c r="F21" s="80">
         <f>SUM(F18:F19)</f>
-        <v>4542</v>
+        <v>4577</v>
       </c>
       <c r="H21" s="11"/>
       <c r="I21" s="9" t="s">
@@ -2127,15 +2161,15 @@
       </c>
       <c r="K21" s="78">
         <f>SUM(K18:K19)</f>
-        <v>1271</v>
+        <v>1261</v>
       </c>
       <c r="L21" s="78">
         <f>SUM(L18:L19)</f>
-        <v>1419</v>
+        <v>1388</v>
       </c>
       <c r="M21" s="78">
         <f>SUM(M18:M19)</f>
-        <v>2690</v>
+        <v>2649</v>
       </c>
     </row>
     <row r="22" spans="1:13" s="1" customFormat="1" ht="18.75" customHeight="1">
@@ -2144,34 +2178,34 @@
         <v>6</v>
       </c>
       <c r="C22" s="79">
-        <v>611</v>
+        <v>607</v>
       </c>
       <c r="D22" s="79">
-        <v>940</v>
+        <v>941</v>
       </c>
       <c r="E22" s="79">
-        <v>959</v>
+        <v>954</v>
       </c>
       <c r="F22" s="80">
         <f>SUM(D22:E22)</f>
-        <v>1899</v>
+        <v>1895</v>
       </c>
       <c r="H22" s="4"/>
       <c r="I22" s="9" t="s">
         <v>6</v>
       </c>
       <c r="J22" s="79">
-        <v>1299</v>
+        <v>1302</v>
       </c>
       <c r="K22" s="79">
-        <v>1890</v>
+        <v>1863</v>
       </c>
       <c r="L22" s="79">
-        <v>1906</v>
+        <v>1874</v>
       </c>
       <c r="M22" s="80">
         <f>SUM(K22:L22)</f>
-        <v>3796</v>
+        <v>3737</v>
       </c>
     </row>
     <row r="23" spans="1:13" s="1" customFormat="1" ht="18.75" customHeight="1">
@@ -2182,17 +2216,17 @@
         <v>8</v>
       </c>
       <c r="C23" s="79">
-        <v>8</v>
+        <v>2</v>
       </c>
       <c r="D23" s="79">
-        <v>8</v>
+        <v>2</v>
       </c>
       <c r="E23" s="79">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="F23" s="80">
         <f>SUM(D23:E23)</f>
-        <v>17</v>
+        <v>12</v>
       </c>
       <c r="H23" s="10" t="s">
         <v>18</v>
@@ -2201,17 +2235,17 @@
         <v>8</v>
       </c>
       <c r="J23" s="79">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="K23" s="79">
-        <v>3</v>
+        <v>10</v>
       </c>
       <c r="L23" s="79">
-        <v>27</v>
+        <v>22</v>
       </c>
       <c r="M23" s="80">
         <f>SUM(K23:L23)</f>
-        <v>30</v>
+        <v>32</v>
       </c>
     </row>
     <row r="24" spans="1:13" s="1" customFormat="1" ht="18.75" customHeight="1">
@@ -2220,7 +2254,7 @@
         <v>44</v>
       </c>
       <c r="C24" s="79">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D24" s="84"/>
       <c r="E24" s="84"/>
@@ -2243,19 +2277,19 @@
       </c>
       <c r="C25" s="80">
         <f>SUM(C22:C24)</f>
-        <v>628</v>
+        <v>619</v>
       </c>
       <c r="D25" s="80">
         <f>SUM(D22:D23)</f>
-        <v>948</v>
+        <v>943</v>
       </c>
       <c r="E25" s="80">
         <f>SUM(E22:E23)</f>
-        <v>968</v>
+        <v>964</v>
       </c>
       <c r="F25" s="80">
         <f>SUM(F22:F23)</f>
-        <v>1916</v>
+        <v>1907</v>
       </c>
       <c r="H25" s="11"/>
       <c r="I25" s="9" t="s">
@@ -2263,19 +2297,19 @@
       </c>
       <c r="J25" s="78">
         <f>SUM(J22:J24)</f>
-        <v>1325</v>
+        <v>1329</v>
       </c>
       <c r="K25" s="78">
         <f>SUM(K22:K23)</f>
-        <v>1893</v>
+        <v>1873</v>
       </c>
       <c r="L25" s="78">
         <f>SUM(L22:L23)</f>
-        <v>1933</v>
+        <v>1896</v>
       </c>
       <c r="M25" s="78">
         <f>SUM(M22:M23)</f>
-        <v>3826</v>
+        <v>3769</v>
       </c>
     </row>
     <row r="26" spans="1:13" s="1" customFormat="1" ht="18.75" customHeight="1">
@@ -2285,19 +2319,19 @@
       </c>
       <c r="J26" s="78">
         <f t="shared" ref="J26:L27" si="1">SUM(C6,C10,C14,C18,C22,J6,J10,J14,J18,J22)</f>
-        <v>24492</v>
+        <v>24641</v>
       </c>
       <c r="K26" s="78">
         <f t="shared" si="1"/>
-        <v>33294</v>
+        <v>33025</v>
       </c>
       <c r="L26" s="78">
         <f t="shared" si="1"/>
-        <v>34810</v>
+        <v>34556</v>
       </c>
       <c r="M26" s="78">
         <f>F6+F10+F14+F18+F22+M6+M10+M14+M18+M22</f>
-        <v>68104</v>
+        <v>67581</v>
       </c>
     </row>
     <row r="27" spans="1:13" s="1" customFormat="1" ht="18.75" customHeight="1">
@@ -2312,19 +2346,19 @@
       </c>
       <c r="J27" s="78">
         <f t="shared" si="1"/>
-        <v>728</v>
+        <v>657</v>
       </c>
       <c r="K27" s="78">
         <f t="shared" si="1"/>
-        <v>560</v>
+        <v>502</v>
       </c>
       <c r="L27" s="78">
         <f t="shared" si="1"/>
-        <v>625</v>
+        <v>563</v>
       </c>
       <c r="M27" s="78">
         <f>F7+F11+F15+F19+F23+M7+M11+M15+M19+M23</f>
-        <v>1185</v>
+        <v>1065</v>
       </c>
     </row>
     <row r="28" spans="1:13" s="64" customFormat="1" ht="18.75" customHeight="1">
@@ -2350,19 +2384,19 @@
       </c>
       <c r="J29" s="78">
         <f>SUM(J26:J28)</f>
-        <v>25421</v>
+        <v>25499</v>
       </c>
       <c r="K29" s="78">
         <f>SUM(K26:K27)</f>
-        <v>33854</v>
+        <v>33527</v>
       </c>
       <c r="L29" s="78">
         <f>SUM(L26:L27)</f>
-        <v>35435</v>
+        <v>35119</v>
       </c>
       <c r="M29" s="78">
         <f>F9+F13+F17+F21+F25+M9+M13+M17+M21+M25</f>
-        <v>69289</v>
+        <v>68646</v>
       </c>
     </row>
   </sheetData>
@@ -2371,12 +2405,709 @@
   </mergeCells>
   <phoneticPr fontId="2"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" scale="96" orientation="landscape" r:id="rId1"/>
+  <pageSetup paperSize="9" scale="96" orientation="landscape"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0800-000000000000}">
+  <dimension ref="A1:N26"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D27" sqref="D27"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.5"/>
+  <cols>
+    <col min="1" max="3" width="9" style="1"/>
+    <col min="4" max="4" width="10.25" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="9" width="9" style="1"/>
+    <col min="10" max="10" width="9" style="1" customWidth="1"/>
+    <col min="11" max="16384" width="9" style="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:14" ht="18.75" customHeight="1"/>
+    <row r="2" spans="1:14" ht="30" customHeight="1">
+      <c r="A2" s="95" t="s">
+        <v>26</v>
+      </c>
+      <c r="B2" s="95"/>
+      <c r="C2" s="95"/>
+      <c r="D2" s="95"/>
+      <c r="E2" s="95"/>
+      <c r="F2" s="95"/>
+      <c r="G2" s="95"/>
+      <c r="H2" s="95"/>
+      <c r="I2" s="95"/>
+      <c r="J2" s="95"/>
+      <c r="K2" s="95"/>
+      <c r="L2" s="95"/>
+      <c r="M2" s="95"/>
+    </row>
+    <row r="3" spans="1:14" ht="30" customHeight="1">
+      <c r="A3" s="56"/>
+      <c r="B3" s="57"/>
+      <c r="C3" s="57"/>
+      <c r="D3" s="57"/>
+      <c r="E3" s="57"/>
+      <c r="F3" s="57"/>
+      <c r="G3" s="57"/>
+      <c r="H3" s="57"/>
+      <c r="I3" s="57"/>
+      <c r="L3" s="54" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="4" spans="1:14" ht="18.75" customHeight="1">
+      <c r="L4" s="55" t="s">
+        <v>19</v>
+      </c>
+      <c r="M4" s="58"/>
+    </row>
+    <row r="5" spans="1:14" ht="18.75" customHeight="1"/>
+    <row r="6" spans="1:14" ht="18.75" customHeight="1">
+      <c r="A6" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B6" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="C6" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="D6" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="E6" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="F6" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="H6" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="I6" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="J6" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="K6" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="L6" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="M6" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="7" spans="1:14" ht="18.75" customHeight="1">
+      <c r="A7" s="4"/>
+      <c r="B7" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="C7" s="51">
+        <v>4512</v>
+      </c>
+      <c r="D7" s="52">
+        <v>6186</v>
+      </c>
+      <c r="E7" s="52">
+        <v>6681</v>
+      </c>
+      <c r="F7" s="8">
+        <v>12867</v>
+      </c>
+      <c r="H7" s="4"/>
+      <c r="I7" s="9" t="s">
+        <v>6</v>
+      </c>
+      <c r="J7" s="52">
+        <v>3145</v>
+      </c>
+      <c r="K7" s="52">
+        <v>4671</v>
+      </c>
+      <c r="L7" s="52">
+        <v>4826</v>
+      </c>
+      <c r="M7" s="8">
+        <v>9497</v>
+      </c>
+    </row>
+    <row r="8" spans="1:14" ht="18.75" customHeight="1">
+      <c r="A8" s="10" t="s">
+        <v>7</v>
+      </c>
+      <c r="B8" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="C8" s="52">
+        <v>98</v>
+      </c>
+      <c r="D8" s="52">
+        <v>50</v>
+      </c>
+      <c r="E8" s="52">
+        <v>87</v>
+      </c>
+      <c r="F8" s="53">
+        <v>137</v>
+      </c>
+      <c r="H8" s="10" t="s">
+        <v>9</v>
+      </c>
+      <c r="I8" s="9" t="s">
+        <v>8</v>
+      </c>
+      <c r="J8" s="52">
+        <v>77</v>
+      </c>
+      <c r="K8" s="52">
+        <v>53</v>
+      </c>
+      <c r="L8" s="52">
+        <v>78</v>
+      </c>
+      <c r="M8" s="53">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="9" spans="1:14" ht="18.75" customHeight="1">
+      <c r="A9" s="10"/>
+      <c r="B9" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="C9" s="53">
+        <v>4610</v>
+      </c>
+      <c r="D9" s="53">
+        <v>6236</v>
+      </c>
+      <c r="E9" s="53">
+        <v>6768</v>
+      </c>
+      <c r="F9" s="53">
+        <v>13004</v>
+      </c>
+      <c r="H9" s="11"/>
+      <c r="I9" s="9" t="s">
+        <v>10</v>
+      </c>
+      <c r="J9" s="8">
+        <v>3222</v>
+      </c>
+      <c r="K9" s="8">
+        <v>4724</v>
+      </c>
+      <c r="L9" s="8">
+        <v>4904</v>
+      </c>
+      <c r="M9" s="8">
+        <v>9628</v>
+      </c>
+    </row>
+    <row r="10" spans="1:14" ht="18.75" customHeight="1">
+      <c r="A10" s="4"/>
+      <c r="B10" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="C10" s="52">
+        <v>1649</v>
+      </c>
+      <c r="D10" s="52">
+        <v>2461</v>
+      </c>
+      <c r="E10" s="52">
+        <v>2633</v>
+      </c>
+      <c r="F10" s="53">
+        <v>5094</v>
+      </c>
+      <c r="H10" s="4"/>
+      <c r="I10" s="9" t="s">
+        <v>6</v>
+      </c>
+      <c r="J10" s="52">
+        <v>2110</v>
+      </c>
+      <c r="K10" s="52">
+        <v>3499</v>
+      </c>
+      <c r="L10" s="52">
+        <v>3586</v>
+      </c>
+      <c r="M10" s="8">
+        <v>7085</v>
+      </c>
+    </row>
+    <row r="11" spans="1:14" ht="18.75" customHeight="1">
+      <c r="A11" s="10" t="s">
+        <v>11</v>
+      </c>
+      <c r="B11" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="C11" s="52">
+        <v>22</v>
+      </c>
+      <c r="D11" s="52">
+        <v>14</v>
+      </c>
+      <c r="E11" s="52">
+        <v>26</v>
+      </c>
+      <c r="F11" s="53">
+        <v>40</v>
+      </c>
+      <c r="H11" s="10" t="s">
+        <v>12</v>
+      </c>
+      <c r="I11" s="9" t="s">
+        <v>8</v>
+      </c>
+      <c r="J11" s="52">
+        <v>47</v>
+      </c>
+      <c r="K11" s="52">
+        <v>9</v>
+      </c>
+      <c r="L11" s="52">
+        <v>52</v>
+      </c>
+      <c r="M11" s="8">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="12" spans="1:14" ht="18.75" customHeight="1">
+      <c r="A12" s="10"/>
+      <c r="B12" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="C12" s="8">
+        <v>1671</v>
+      </c>
+      <c r="D12" s="8">
+        <v>2475</v>
+      </c>
+      <c r="E12" s="8">
+        <v>2659</v>
+      </c>
+      <c r="F12" s="8">
+        <v>5134</v>
+      </c>
+      <c r="H12" s="11"/>
+      <c r="I12" s="9" t="s">
+        <v>10</v>
+      </c>
+      <c r="J12" s="8">
+        <v>2157</v>
+      </c>
+      <c r="K12" s="8">
+        <v>3508</v>
+      </c>
+      <c r="L12" s="8">
+        <v>3638</v>
+      </c>
+      <c r="M12" s="8">
+        <v>7146</v>
+      </c>
+    </row>
+    <row r="13" spans="1:14" ht="18.75" customHeight="1">
+      <c r="A13" s="4"/>
+      <c r="B13" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="C13" s="52">
+        <v>5245</v>
+      </c>
+      <c r="D13" s="52">
+        <v>7382</v>
+      </c>
+      <c r="E13" s="52">
+        <v>7765</v>
+      </c>
+      <c r="F13" s="8">
+        <v>15147</v>
+      </c>
+      <c r="H13" s="4"/>
+      <c r="I13" s="9" t="s">
+        <v>6</v>
+      </c>
+      <c r="J13" s="52">
+        <v>1568</v>
+      </c>
+      <c r="K13" s="52">
+        <v>2254</v>
+      </c>
+      <c r="L13" s="52">
+        <v>2397</v>
+      </c>
+      <c r="M13" s="8">
+        <v>4651</v>
+      </c>
+    </row>
+    <row r="14" spans="1:14" ht="18.75" customHeight="1">
+      <c r="A14" s="10" t="s">
+        <v>13</v>
+      </c>
+      <c r="B14" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="C14" s="52">
+        <v>129</v>
+      </c>
+      <c r="D14" s="52">
+        <v>85</v>
+      </c>
+      <c r="E14" s="52">
+        <v>161</v>
+      </c>
+      <c r="F14" s="8">
+        <v>246</v>
+      </c>
+      <c r="H14" s="10" t="s">
+        <v>14</v>
+      </c>
+      <c r="I14" s="9" t="s">
+        <v>8</v>
+      </c>
+      <c r="J14" s="52">
+        <v>35</v>
+      </c>
+      <c r="K14" s="52">
+        <v>13</v>
+      </c>
+      <c r="L14" s="52">
+        <v>32</v>
+      </c>
+      <c r="M14" s="8">
+        <v>45</v>
+      </c>
+      <c r="N14" s="12"/>
+    </row>
+    <row r="15" spans="1:14" ht="18.75" customHeight="1">
+      <c r="A15" s="11"/>
+      <c r="B15" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="C15" s="8">
+        <v>5374</v>
+      </c>
+      <c r="D15" s="8">
+        <v>7467</v>
+      </c>
+      <c r="E15" s="8">
+        <v>7926</v>
+      </c>
+      <c r="F15" s="8">
+        <v>15393</v>
+      </c>
+      <c r="H15" s="11"/>
+      <c r="I15" s="9" t="s">
+        <v>10</v>
+      </c>
+      <c r="J15" s="8">
+        <v>1603</v>
+      </c>
+      <c r="K15" s="8">
+        <v>2267</v>
+      </c>
+      <c r="L15" s="8">
+        <v>2429</v>
+      </c>
+      <c r="M15" s="8">
+        <v>4696</v>
+      </c>
+    </row>
+    <row r="16" spans="1:14" ht="18.75" customHeight="1">
+      <c r="A16" s="10"/>
+      <c r="B16" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="C16" s="52">
+        <v>1250</v>
+      </c>
+      <c r="D16" s="52">
+        <v>2113</v>
+      </c>
+      <c r="E16" s="52">
+        <v>2194</v>
+      </c>
+      <c r="F16" s="8">
+        <v>4307</v>
+      </c>
+      <c r="H16" s="4"/>
+      <c r="I16" s="9" t="s">
+        <v>6</v>
+      </c>
+      <c r="J16" s="52">
+        <v>797</v>
+      </c>
+      <c r="K16" s="52">
+        <v>1390</v>
+      </c>
+      <c r="L16" s="52">
+        <v>1551</v>
+      </c>
+      <c r="M16" s="8">
+        <v>2941</v>
+      </c>
+    </row>
+    <row r="17" spans="1:13" ht="18.75" customHeight="1">
+      <c r="A17" s="10" t="s">
+        <v>15</v>
+      </c>
+      <c r="B17" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="C17" s="52">
+        <v>12</v>
+      </c>
+      <c r="D17" s="52">
+        <v>15</v>
+      </c>
+      <c r="E17" s="52">
+        <v>13</v>
+      </c>
+      <c r="F17" s="53">
+        <v>28</v>
+      </c>
+      <c r="H17" s="10" t="s">
+        <v>16</v>
+      </c>
+      <c r="I17" s="9" t="s">
+        <v>8</v>
+      </c>
+      <c r="J17" s="52">
+        <v>5</v>
+      </c>
+      <c r="K17" s="52">
+        <v>5</v>
+      </c>
+      <c r="L17" s="52">
+        <v>6</v>
+      </c>
+      <c r="M17" s="8">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="18" spans="1:13" ht="18.75" customHeight="1">
+      <c r="A18" s="10"/>
+      <c r="B18" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="C18" s="8">
+        <v>1262</v>
+      </c>
+      <c r="D18" s="8">
+        <v>2128</v>
+      </c>
+      <c r="E18" s="8">
+        <v>2207</v>
+      </c>
+      <c r="F18" s="8">
+        <v>4335</v>
+      </c>
+      <c r="H18" s="11"/>
+      <c r="I18" s="9" t="s">
+        <v>10</v>
+      </c>
+      <c r="J18" s="8">
+        <v>802</v>
+      </c>
+      <c r="K18" s="8">
+        <v>1395</v>
+      </c>
+      <c r="L18" s="8">
+        <v>1557</v>
+      </c>
+      <c r="M18" s="8">
+        <v>2952</v>
+      </c>
+    </row>
+    <row r="19" spans="1:13" ht="18.75" customHeight="1">
+      <c r="A19" s="4"/>
+      <c r="B19" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="C19" s="52">
+        <v>602</v>
+      </c>
+      <c r="D19" s="52">
+        <v>1007</v>
+      </c>
+      <c r="E19" s="52">
+        <v>1051</v>
+      </c>
+      <c r="F19" s="8">
+        <v>2058</v>
+      </c>
+      <c r="H19" s="4"/>
+      <c r="I19" s="9" t="s">
+        <v>6</v>
+      </c>
+      <c r="J19" s="52">
+        <v>1300</v>
+      </c>
+      <c r="K19" s="52">
+        <v>2159</v>
+      </c>
+      <c r="L19" s="52">
+        <v>2253</v>
+      </c>
+      <c r="M19" s="8">
+        <v>4412</v>
+      </c>
+    </row>
+    <row r="20" spans="1:13" ht="18.75" customHeight="1">
+      <c r="A20" s="10" t="s">
+        <v>17</v>
+      </c>
+      <c r="B20" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="C20" s="52">
+        <v>0</v>
+      </c>
+      <c r="D20" s="52">
+        <v>1</v>
+      </c>
+      <c r="E20" s="52">
+        <v>9</v>
+      </c>
+      <c r="F20" s="8">
+        <v>10</v>
+      </c>
+      <c r="H20" s="10" t="s">
+        <v>18</v>
+      </c>
+      <c r="I20" s="9" t="s">
+        <v>8</v>
+      </c>
+      <c r="J20" s="52">
+        <v>7</v>
+      </c>
+      <c r="K20" s="52">
+        <v>4</v>
+      </c>
+      <c r="L20" s="52">
+        <v>18</v>
+      </c>
+      <c r="M20" s="8">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="21" spans="1:13" ht="18.75" customHeight="1">
+      <c r="A21" s="11"/>
+      <c r="B21" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="C21" s="8">
+        <v>602</v>
+      </c>
+      <c r="D21" s="8">
+        <v>1008</v>
+      </c>
+      <c r="E21" s="8">
+        <v>1060</v>
+      </c>
+      <c r="F21" s="8">
+        <v>2068</v>
+      </c>
+      <c r="H21" s="11"/>
+      <c r="I21" s="9" t="s">
+        <v>10</v>
+      </c>
+      <c r="J21" s="8">
+        <v>1307</v>
+      </c>
+      <c r="K21" s="8">
+        <v>2163</v>
+      </c>
+      <c r="L21" s="8">
+        <v>2271</v>
+      </c>
+      <c r="M21" s="8">
+        <v>4434</v>
+      </c>
+    </row>
+    <row r="22" spans="1:13" ht="18.75" customHeight="1">
+      <c r="H22" s="4"/>
+      <c r="I22" s="9" t="s">
+        <v>6</v>
+      </c>
+      <c r="J22" s="8">
+        <v>22178</v>
+      </c>
+      <c r="K22" s="8">
+        <v>33122</v>
+      </c>
+      <c r="L22" s="8">
+        <v>34937</v>
+      </c>
+      <c r="M22" s="8">
+        <v>68059</v>
+      </c>
+    </row>
+    <row r="23" spans="1:13" ht="18.75" customHeight="1">
+      <c r="H23" s="10" t="s">
+        <v>5</v>
+      </c>
+      <c r="I23" s="9" t="s">
+        <v>8</v>
+      </c>
+      <c r="J23" s="8">
+        <v>432</v>
+      </c>
+      <c r="K23" s="8">
+        <v>249</v>
+      </c>
+      <c r="L23" s="8">
+        <v>482</v>
+      </c>
+      <c r="M23" s="8">
+        <v>731</v>
+      </c>
+    </row>
+    <row r="24" spans="1:13" ht="18.75" customHeight="1">
+      <c r="H24" s="11"/>
+      <c r="I24" s="9" t="s">
+        <v>10</v>
+      </c>
+      <c r="J24" s="8">
+        <v>22610</v>
+      </c>
+      <c r="K24" s="8">
+        <v>33371</v>
+      </c>
+      <c r="L24" s="8">
+        <v>35419</v>
+      </c>
+      <c r="M24" s="8">
+        <v>68790</v>
+      </c>
+    </row>
+    <row r="25" spans="1:13" ht="18.75" customHeight="1">
+      <c r="F25" s="13"/>
+      <c r="G25" s="13"/>
+      <c r="H25" s="13"/>
+    </row>
+    <row r="26" spans="1:13" ht="18.75" customHeight="1"/>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="A2:M2"/>
+  </mergeCells>
+  <phoneticPr fontId="2"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.51200000000000001" footer="0.51200000000000001"/>
+  <headerFooter alignWithMargins="0"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0900-000000000000}">
   <dimension ref="A1:N26"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
@@ -3066,13 +3797,13 @@
   </mergeCells>
   <phoneticPr fontId="2"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.51200000000000001" footer="0.51200000000000001"/>
-  <pageSetup paperSize="9" orientation="landscape" r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="landscape"/>
   <headerFooter alignWithMargins="0"/>
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0A00-000000000000}">
   <dimension ref="A1:N26"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -3768,8 +4499,8 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0B00-000000000000}">
   <dimension ref="A1:N26"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -4537,8 +5268,8 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0C00-000000000000}">
   <dimension ref="A1:N26"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
@@ -5296,13 +6027,13 @@
   </mergeCells>
   <phoneticPr fontId="2"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.51200000000000001" footer="0.51200000000000001"/>
-  <pageSetup paperSize="9" orientation="landscape" r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="landscape"/>
   <headerFooter alignWithMargins="0"/>
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0D00-000000000000}">
   <dimension ref="A1:N25"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -6063,13 +6794,13 @@
   </mergeCells>
   <phoneticPr fontId="2"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.51200000000000001" footer="0.51200000000000001"/>
-  <pageSetup paperSize="9" orientation="landscape" r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="landscape"/>
   <headerFooter alignWithMargins="0"/>
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0E00-000000000000}">
   <dimension ref="A1:N25"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -6830,13 +7561,13 @@
   </mergeCells>
   <phoneticPr fontId="2"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.51200000000000001" footer="0.51200000000000001"/>
-  <pageSetup paperSize="9" orientation="landscape" r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="landscape"/>
   <headerFooter alignWithMargins="0"/>
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0F00-000000000000}">
   <dimension ref="A1:N25"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -7597,13 +8328,13 @@
   </mergeCells>
   <phoneticPr fontId="2"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.51200000000000001" footer="0.51200000000000001"/>
-  <pageSetup paperSize="9" orientation="landscape" r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="landscape"/>
   <headerFooter alignWithMargins="0"/>
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<file path=xl/worksheets/sheet18.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1000-000000000000}">
   <dimension ref="A1:N26"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
@@ -8363,13 +9094,13 @@
   </mergeCells>
   <phoneticPr fontId="2"/>
   <pageMargins left="1.4" right="0.75" top="1" bottom="1" header="0.53" footer="0.51200000000000001"/>
-  <pageSetup paperSize="9" orientation="landscape" horizontalDpi="400" verticalDpi="400" r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="landscape" horizontalDpi="400" verticalDpi="400"/>
   <headerFooter alignWithMargins="0"/>
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet18.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<file path=xl/worksheets/sheet19.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1100-000000000000}">
   <dimension ref="A1:N26"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
@@ -9125,13 +9856,903 @@
   </mergeCells>
   <phoneticPr fontId="2"/>
   <pageMargins left="1.4" right="0.75" top="1" bottom="1" header="0.53" footer="0.51200000000000001"/>
-  <pageSetup paperSize="9" orientation="landscape" horizontalDpi="400" verticalDpi="400" r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="landscape" horizontalDpi="400" verticalDpi="400"/>
   <headerFooter alignWithMargins="0"/>
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet19.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:N29"/>
+  <sheetViews>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="C6" sqref="C6"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.5"/>
+  <cols>
+    <col min="1" max="3" width="9" style="89"/>
+    <col min="4" max="4" width="10.25" style="89" customWidth="1"/>
+    <col min="5" max="16384" width="9" style="89"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:14" ht="30" customHeight="1">
+      <c r="A1" s="95" t="s">
+        <v>34</v>
+      </c>
+      <c r="B1" s="95"/>
+      <c r="C1" s="95"/>
+      <c r="D1" s="95"/>
+      <c r="E1" s="95"/>
+      <c r="F1" s="95"/>
+      <c r="G1" s="95"/>
+      <c r="H1" s="95"/>
+      <c r="I1" s="95"/>
+      <c r="J1" s="95"/>
+      <c r="K1" s="95"/>
+      <c r="L1" s="95"/>
+      <c r="M1" s="95"/>
+    </row>
+    <row r="2" spans="1:14" ht="18.75" customHeight="1">
+      <c r="A2" s="90"/>
+      <c r="B2" s="91"/>
+      <c r="C2" s="91"/>
+      <c r="D2" s="91"/>
+      <c r="E2" s="91"/>
+      <c r="F2" s="91"/>
+      <c r="G2" s="91"/>
+      <c r="H2" s="91"/>
+      <c r="I2" s="91"/>
+      <c r="L2" s="92" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="3" spans="1:14" ht="18.75" customHeight="1">
+      <c r="L3" s="93" t="s">
+        <v>19</v>
+      </c>
+      <c r="M3" s="94"/>
+    </row>
+    <row r="4" spans="1:14" ht="12" customHeight="1"/>
+    <row r="5" spans="1:14" s="1" customFormat="1" ht="18.75" customHeight="1">
+      <c r="A5" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B5" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="C5" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="D5" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="E5" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="F5" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="H5" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="I5" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="J5" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="K5" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="L5" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="M5" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="6" spans="1:14" s="1" customFormat="1" ht="18.75" customHeight="1">
+      <c r="A6" s="4"/>
+      <c r="B6" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="C6" s="74">
+        <v>4966</v>
+      </c>
+      <c r="D6" s="75">
+        <v>6234</v>
+      </c>
+      <c r="E6" s="75">
+        <v>6591</v>
+      </c>
+      <c r="F6" s="80">
+        <f>SUM(D6:E6)</f>
+        <v>12825</v>
+      </c>
+      <c r="H6" s="4"/>
+      <c r="I6" s="9" t="s">
+        <v>6</v>
+      </c>
+      <c r="J6" s="79">
+        <v>3591</v>
+      </c>
+      <c r="K6" s="79">
+        <v>4865</v>
+      </c>
+      <c r="L6" s="79">
+        <v>4981</v>
+      </c>
+      <c r="M6" s="80">
+        <f>SUM(K6:L6)</f>
+        <v>9846</v>
+      </c>
+    </row>
+    <row r="7" spans="1:14" s="1" customFormat="1" ht="18.75" customHeight="1">
+      <c r="A7" s="10" t="s">
+        <v>7</v>
+      </c>
+      <c r="B7" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="C7" s="79">
+        <v>181</v>
+      </c>
+      <c r="D7" s="79">
+        <v>113</v>
+      </c>
+      <c r="E7" s="79">
+        <v>143</v>
+      </c>
+      <c r="F7" s="80">
+        <f>SUM(D7:E7)</f>
+        <v>256</v>
+      </c>
+      <c r="H7" s="10" t="s">
+        <v>9</v>
+      </c>
+      <c r="I7" s="9" t="s">
+        <v>8</v>
+      </c>
+      <c r="J7" s="79">
+        <v>106</v>
+      </c>
+      <c r="K7" s="79">
+        <v>76</v>
+      </c>
+      <c r="L7" s="79">
+        <v>81</v>
+      </c>
+      <c r="M7" s="80">
+        <f t="shared" ref="M7:M15" si="0">SUM(K7:L7)</f>
+        <v>157</v>
+      </c>
+    </row>
+    <row r="8" spans="1:14" s="1" customFormat="1" ht="18.75" customHeight="1">
+      <c r="A8" s="10"/>
+      <c r="B8" s="5" t="s">
+        <v>44</v>
+      </c>
+      <c r="C8" s="79">
+        <v>27</v>
+      </c>
+      <c r="D8" s="84"/>
+      <c r="E8" s="84"/>
+      <c r="F8" s="85"/>
+      <c r="H8" s="10"/>
+      <c r="I8" s="9" t="s">
+        <v>44</v>
+      </c>
+      <c r="J8" s="79">
+        <v>32</v>
+      </c>
+      <c r="K8" s="84"/>
+      <c r="L8" s="84"/>
+      <c r="M8" s="85"/>
+    </row>
+    <row r="9" spans="1:14" s="1" customFormat="1" ht="18.75" customHeight="1">
+      <c r="A9" s="10"/>
+      <c r="B9" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="C9" s="80">
+        <f>SUM(C6:C8)</f>
+        <v>5174</v>
+      </c>
+      <c r="D9" s="80">
+        <f>SUM(D6:D7)</f>
+        <v>6347</v>
+      </c>
+      <c r="E9" s="80">
+        <f>SUM(E6:E7)</f>
+        <v>6734</v>
+      </c>
+      <c r="F9" s="80">
+        <f>SUM(F6:F7)</f>
+        <v>13081</v>
+      </c>
+      <c r="H9" s="11"/>
+      <c r="I9" s="9" t="s">
+        <v>10</v>
+      </c>
+      <c r="J9" s="80">
+        <f>SUM(J6:J8)</f>
+        <v>3729</v>
+      </c>
+      <c r="K9" s="80">
+        <f>SUM(K6:K7)</f>
+        <v>4941</v>
+      </c>
+      <c r="L9" s="80">
+        <f>SUM(L6:L7)</f>
+        <v>5062</v>
+      </c>
+      <c r="M9" s="80">
+        <f t="shared" si="0"/>
+        <v>10003</v>
+      </c>
+    </row>
+    <row r="10" spans="1:14" s="1" customFormat="1" ht="18.75" customHeight="1">
+      <c r="A10" s="4"/>
+      <c r="B10" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="C10" s="79">
+        <v>1939</v>
+      </c>
+      <c r="D10" s="79">
+        <v>2624</v>
+      </c>
+      <c r="E10" s="79">
+        <v>2713</v>
+      </c>
+      <c r="F10" s="80">
+        <f>SUM(D10:E10)</f>
+        <v>5337</v>
+      </c>
+      <c r="H10" s="4"/>
+      <c r="I10" s="9" t="s">
+        <v>6</v>
+      </c>
+      <c r="J10" s="79">
+        <v>2314</v>
+      </c>
+      <c r="K10" s="79">
+        <v>3453</v>
+      </c>
+      <c r="L10" s="79">
+        <v>3566</v>
+      </c>
+      <c r="M10" s="80">
+        <f t="shared" si="0"/>
+        <v>7019</v>
+      </c>
+    </row>
+    <row r="11" spans="1:14" s="1" customFormat="1" ht="18.75" customHeight="1">
+      <c r="A11" s="10" t="s">
+        <v>11</v>
+      </c>
+      <c r="B11" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="C11" s="79">
+        <v>88</v>
+      </c>
+      <c r="D11" s="79">
+        <v>70</v>
+      </c>
+      <c r="E11" s="79">
+        <v>78</v>
+      </c>
+      <c r="F11" s="80">
+        <f>SUM(D11:E11)</f>
+        <v>148</v>
+      </c>
+      <c r="H11" s="10" t="s">
+        <v>12</v>
+      </c>
+      <c r="I11" s="9" t="s">
+        <v>8</v>
+      </c>
+      <c r="J11" s="79">
+        <v>28</v>
+      </c>
+      <c r="K11" s="79">
+        <v>18</v>
+      </c>
+      <c r="L11" s="79">
+        <v>28</v>
+      </c>
+      <c r="M11" s="80">
+        <f t="shared" si="0"/>
+        <v>46</v>
+      </c>
+    </row>
+    <row r="12" spans="1:14" s="1" customFormat="1" ht="18.75" customHeight="1">
+      <c r="A12" s="10"/>
+      <c r="B12" s="5" t="s">
+        <v>44</v>
+      </c>
+      <c r="C12" s="79">
+        <v>18</v>
+      </c>
+      <c r="D12" s="84"/>
+      <c r="E12" s="84"/>
+      <c r="F12" s="85"/>
+      <c r="H12" s="10"/>
+      <c r="I12" s="9" t="s">
+        <v>44</v>
+      </c>
+      <c r="J12" s="79">
+        <v>13</v>
+      </c>
+      <c r="K12" s="84"/>
+      <c r="L12" s="84"/>
+      <c r="M12" s="85"/>
+    </row>
+    <row r="13" spans="1:14" s="1" customFormat="1" ht="18.75" customHeight="1">
+      <c r="A13" s="10"/>
+      <c r="B13" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="C13" s="80">
+        <f>SUM(C10:C12)</f>
+        <v>2045</v>
+      </c>
+      <c r="D13" s="80">
+        <f>SUM(D10:D11)</f>
+        <v>2694</v>
+      </c>
+      <c r="E13" s="80">
+        <f>SUM(E10:E11)</f>
+        <v>2791</v>
+      </c>
+      <c r="F13" s="80">
+        <f>SUM(F10:F11)</f>
+        <v>5485</v>
+      </c>
+      <c r="H13" s="11"/>
+      <c r="I13" s="9" t="s">
+        <v>10</v>
+      </c>
+      <c r="J13" s="78">
+        <f>SUM(J10:J12)</f>
+        <v>2355</v>
+      </c>
+      <c r="K13" s="78">
+        <f>SUM(K10:K11)</f>
+        <v>3471</v>
+      </c>
+      <c r="L13" s="78">
+        <f>SUM(L10:L11)</f>
+        <v>3594</v>
+      </c>
+      <c r="M13" s="78">
+        <f t="shared" si="0"/>
+        <v>7065</v>
+      </c>
+    </row>
+    <row r="14" spans="1:14" s="1" customFormat="1" ht="18.75" customHeight="1">
+      <c r="A14" s="4"/>
+      <c r="B14" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="C14" s="79">
+        <v>5847</v>
+      </c>
+      <c r="D14" s="79">
+        <v>7595</v>
+      </c>
+      <c r="E14" s="79">
+        <v>8032</v>
+      </c>
+      <c r="F14" s="80">
+        <f>SUM(D14:E14)</f>
+        <v>15627</v>
+      </c>
+      <c r="H14" s="4"/>
+      <c r="I14" s="9" t="s">
+        <v>6</v>
+      </c>
+      <c r="J14" s="79">
+        <v>1665</v>
+      </c>
+      <c r="K14" s="79">
+        <v>2262</v>
+      </c>
+      <c r="L14" s="79">
+        <v>2385</v>
+      </c>
+      <c r="M14" s="80">
+        <f>SUM(K14:L14)</f>
+        <v>4647</v>
+      </c>
+    </row>
+    <row r="15" spans="1:14" s="1" customFormat="1" ht="18.75" customHeight="1">
+      <c r="A15" s="10" t="s">
+        <v>13</v>
+      </c>
+      <c r="B15" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="C15" s="79">
+        <v>218</v>
+      </c>
+      <c r="D15" s="79">
+        <v>199</v>
+      </c>
+      <c r="E15" s="79">
+        <v>184</v>
+      </c>
+      <c r="F15" s="80">
+        <f>SUM(D15:E15)</f>
+        <v>383</v>
+      </c>
+      <c r="H15" s="10" t="s">
+        <v>14</v>
+      </c>
+      <c r="I15" s="9" t="s">
+        <v>8</v>
+      </c>
+      <c r="J15" s="79">
+        <v>15</v>
+      </c>
+      <c r="K15" s="79">
+        <v>9</v>
+      </c>
+      <c r="L15" s="79">
+        <v>15</v>
+      </c>
+      <c r="M15" s="80">
+        <f t="shared" si="0"/>
+        <v>24</v>
+      </c>
+      <c r="N15" s="12"/>
+    </row>
+    <row r="16" spans="1:14" s="1" customFormat="1" ht="18.75" customHeight="1">
+      <c r="A16" s="10"/>
+      <c r="B16" s="5" t="s">
+        <v>44</v>
+      </c>
+      <c r="C16" s="79">
+        <v>60</v>
+      </c>
+      <c r="D16" s="84"/>
+      <c r="E16" s="84"/>
+      <c r="F16" s="85"/>
+      <c r="H16" s="10"/>
+      <c r="I16" s="9" t="s">
+        <v>44</v>
+      </c>
+      <c r="J16" s="79">
+        <v>6</v>
+      </c>
+      <c r="K16" s="84"/>
+      <c r="L16" s="84"/>
+      <c r="M16" s="85"/>
+      <c r="N16" s="12"/>
+    </row>
+    <row r="17" spans="1:13" s="1" customFormat="1" ht="18.75" customHeight="1">
+      <c r="A17" s="11"/>
+      <c r="B17" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="C17" s="80">
+        <f>SUM(C14:C16)</f>
+        <v>6125</v>
+      </c>
+      <c r="D17" s="80">
+        <f>SUM(D14:D15)</f>
+        <v>7794</v>
+      </c>
+      <c r="E17" s="80">
+        <f>SUM(E14:E15)</f>
+        <v>8216</v>
+      </c>
+      <c r="F17" s="80">
+        <f>SUM(F14:F15)</f>
+        <v>16010</v>
+      </c>
+      <c r="H17" s="11"/>
+      <c r="I17" s="9" t="s">
+        <v>10</v>
+      </c>
+      <c r="J17" s="80">
+        <f>SUM(J14:J16)</f>
+        <v>1686</v>
+      </c>
+      <c r="K17" s="80">
+        <f>SUM(K14:K15)</f>
+        <v>2271</v>
+      </c>
+      <c r="L17" s="80">
+        <f>SUM(L14:L15)</f>
+        <v>2400</v>
+      </c>
+      <c r="M17" s="80">
+        <f>SUM(K17:L17)</f>
+        <v>4671</v>
+      </c>
+    </row>
+    <row r="18" spans="1:13" s="1" customFormat="1" ht="18.75" customHeight="1">
+      <c r="A18" s="10"/>
+      <c r="B18" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="C18" s="79">
+        <v>1440</v>
+      </c>
+      <c r="D18" s="79">
+        <v>2167</v>
+      </c>
+      <c r="E18" s="79">
+        <v>2264</v>
+      </c>
+      <c r="F18" s="80">
+        <f>SUM(D18:E18)</f>
+        <v>4431</v>
+      </c>
+      <c r="H18" s="4"/>
+      <c r="I18" s="9" t="s">
+        <v>6</v>
+      </c>
+      <c r="J18" s="81">
+        <v>820</v>
+      </c>
+      <c r="K18" s="81">
+        <v>1264</v>
+      </c>
+      <c r="L18" s="81">
+        <v>1413</v>
+      </c>
+      <c r="M18" s="80">
+        <f>SUM(K18:L18)</f>
+        <v>2677</v>
+      </c>
+    </row>
+    <row r="19" spans="1:13" s="1" customFormat="1" ht="18.75" customHeight="1">
+      <c r="A19" s="10" t="s">
+        <v>15</v>
+      </c>
+      <c r="B19" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="C19" s="79">
+        <v>62</v>
+      </c>
+      <c r="D19" s="79">
+        <v>57</v>
+      </c>
+      <c r="E19" s="79">
+        <v>54</v>
+      </c>
+      <c r="F19" s="80">
+        <f>SUM(D19:E19)</f>
+        <v>111</v>
+      </c>
+      <c r="H19" s="10" t="s">
+        <v>16</v>
+      </c>
+      <c r="I19" s="9" t="s">
+        <v>8</v>
+      </c>
+      <c r="J19" s="79">
+        <v>4</v>
+      </c>
+      <c r="K19" s="79">
+        <v>7</v>
+      </c>
+      <c r="L19" s="79">
+        <v>6</v>
+      </c>
+      <c r="M19" s="80">
+        <f>SUM(K19:L19)</f>
+        <v>13</v>
+      </c>
+    </row>
+    <row r="20" spans="1:13" s="1" customFormat="1" ht="18.75" customHeight="1">
+      <c r="A20" s="10"/>
+      <c r="B20" s="5" t="s">
+        <v>44</v>
+      </c>
+      <c r="C20" s="79">
+        <v>20</v>
+      </c>
+      <c r="D20" s="84"/>
+      <c r="E20" s="84"/>
+      <c r="F20" s="85"/>
+      <c r="H20" s="10"/>
+      <c r="I20" s="9" t="s">
+        <v>44</v>
+      </c>
+      <c r="J20" s="79">
+        <v>8</v>
+      </c>
+      <c r="K20" s="84"/>
+      <c r="L20" s="84"/>
+      <c r="M20" s="85"/>
+    </row>
+    <row r="21" spans="1:13" s="1" customFormat="1" ht="18.75" customHeight="1">
+      <c r="A21" s="10"/>
+      <c r="B21" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="C21" s="80">
+        <f>SUM(C18:C20)</f>
+        <v>1522</v>
+      </c>
+      <c r="D21" s="80">
+        <f>SUM(D18:D19)</f>
+        <v>2224</v>
+      </c>
+      <c r="E21" s="80">
+        <f>SUM(E18:E19)</f>
+        <v>2318</v>
+      </c>
+      <c r="F21" s="80">
+        <f>SUM(F18:F19)</f>
+        <v>4542</v>
+      </c>
+      <c r="H21" s="11"/>
+      <c r="I21" s="9" t="s">
+        <v>10</v>
+      </c>
+      <c r="J21" s="78">
+        <f>SUM(J18:J20)</f>
+        <v>832</v>
+      </c>
+      <c r="K21" s="78">
+        <f>SUM(K18:K19)</f>
+        <v>1271</v>
+      </c>
+      <c r="L21" s="78">
+        <f>SUM(L18:L19)</f>
+        <v>1419</v>
+      </c>
+      <c r="M21" s="78">
+        <f>SUM(M18:M19)</f>
+        <v>2690</v>
+      </c>
+    </row>
+    <row r="22" spans="1:13" s="1" customFormat="1" ht="18.75" customHeight="1">
+      <c r="A22" s="4"/>
+      <c r="B22" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="C22" s="79">
+        <v>611</v>
+      </c>
+      <c r="D22" s="79">
+        <v>940</v>
+      </c>
+      <c r="E22" s="79">
+        <v>959</v>
+      </c>
+      <c r="F22" s="80">
+        <f>SUM(D22:E22)</f>
+        <v>1899</v>
+      </c>
+      <c r="H22" s="4"/>
+      <c r="I22" s="9" t="s">
+        <v>6</v>
+      </c>
+      <c r="J22" s="79">
+        <v>1299</v>
+      </c>
+      <c r="K22" s="79">
+        <v>1890</v>
+      </c>
+      <c r="L22" s="79">
+        <v>1906</v>
+      </c>
+      <c r="M22" s="80">
+        <f>SUM(K22:L22)</f>
+        <v>3796</v>
+      </c>
+    </row>
+    <row r="23" spans="1:13" s="1" customFormat="1" ht="18.75" customHeight="1">
+      <c r="A23" s="10" t="s">
+        <v>17</v>
+      </c>
+      <c r="B23" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="C23" s="79">
+        <v>8</v>
+      </c>
+      <c r="D23" s="79">
+        <v>8</v>
+      </c>
+      <c r="E23" s="79">
+        <v>9</v>
+      </c>
+      <c r="F23" s="80">
+        <f>SUM(D23:E23)</f>
+        <v>17</v>
+      </c>
+      <c r="H23" s="10" t="s">
+        <v>18</v>
+      </c>
+      <c r="I23" s="9" t="s">
+        <v>8</v>
+      </c>
+      <c r="J23" s="79">
+        <v>18</v>
+      </c>
+      <c r="K23" s="79">
+        <v>3</v>
+      </c>
+      <c r="L23" s="79">
+        <v>27</v>
+      </c>
+      <c r="M23" s="80">
+        <f>SUM(K23:L23)</f>
+        <v>30</v>
+      </c>
+    </row>
+    <row r="24" spans="1:13" s="1" customFormat="1" ht="18.75" customHeight="1">
+      <c r="A24" s="10"/>
+      <c r="B24" s="5" t="s">
+        <v>44</v>
+      </c>
+      <c r="C24" s="79">
+        <v>9</v>
+      </c>
+      <c r="D24" s="84"/>
+      <c r="E24" s="84"/>
+      <c r="F24" s="85"/>
+      <c r="H24" s="10"/>
+      <c r="I24" s="9" t="s">
+        <v>44</v>
+      </c>
+      <c r="J24" s="79">
+        <v>8</v>
+      </c>
+      <c r="K24" s="84"/>
+      <c r="L24" s="84"/>
+      <c r="M24" s="85"/>
+    </row>
+    <row r="25" spans="1:13" s="1" customFormat="1" ht="18.75" customHeight="1">
+      <c r="A25" s="11"/>
+      <c r="B25" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="C25" s="80">
+        <f>SUM(C22:C24)</f>
+        <v>628</v>
+      </c>
+      <c r="D25" s="80">
+        <f>SUM(D22:D23)</f>
+        <v>948</v>
+      </c>
+      <c r="E25" s="80">
+        <f>SUM(E22:E23)</f>
+        <v>968</v>
+      </c>
+      <c r="F25" s="80">
+        <f>SUM(F22:F23)</f>
+        <v>1916</v>
+      </c>
+      <c r="H25" s="11"/>
+      <c r="I25" s="9" t="s">
+        <v>10</v>
+      </c>
+      <c r="J25" s="78">
+        <f>SUM(J22:J24)</f>
+        <v>1325</v>
+      </c>
+      <c r="K25" s="78">
+        <f>SUM(K22:K23)</f>
+        <v>1893</v>
+      </c>
+      <c r="L25" s="78">
+        <f>SUM(L22:L23)</f>
+        <v>1933</v>
+      </c>
+      <c r="M25" s="78">
+        <f>SUM(M22:M23)</f>
+        <v>3826</v>
+      </c>
+    </row>
+    <row r="26" spans="1:13" s="1" customFormat="1" ht="18.75" customHeight="1">
+      <c r="H26" s="4"/>
+      <c r="I26" s="9" t="s">
+        <v>6</v>
+      </c>
+      <c r="J26" s="78">
+        <f t="shared" ref="J26:L27" si="1">SUM(C6,C10,C14,C18,C22,J6,J10,J14,J18,J22)</f>
+        <v>24492</v>
+      </c>
+      <c r="K26" s="78">
+        <f t="shared" si="1"/>
+        <v>33294</v>
+      </c>
+      <c r="L26" s="78">
+        <f t="shared" si="1"/>
+        <v>34810</v>
+      </c>
+      <c r="M26" s="78">
+        <f>F6+F10+F14+F18+F22+M6+M10+M14+M18+M22</f>
+        <v>68104</v>
+      </c>
+    </row>
+    <row r="27" spans="1:13" s="1" customFormat="1" ht="18.75" customHeight="1">
+      <c r="A27" s="60" t="s">
+        <v>45</v>
+      </c>
+      <c r="H27" s="10" t="s">
+        <v>5</v>
+      </c>
+      <c r="I27" s="9" t="s">
+        <v>8</v>
+      </c>
+      <c r="J27" s="78">
+        <f t="shared" si="1"/>
+        <v>728</v>
+      </c>
+      <c r="K27" s="78">
+        <f t="shared" si="1"/>
+        <v>560</v>
+      </c>
+      <c r="L27" s="78">
+        <f t="shared" si="1"/>
+        <v>625</v>
+      </c>
+      <c r="M27" s="78">
+        <f>F7+F11+F15+F19+F23+M7+M11+M15+M19+M23</f>
+        <v>1185</v>
+      </c>
+    </row>
+    <row r="28" spans="1:13" s="64" customFormat="1" ht="18.75" customHeight="1">
+      <c r="A28" s="61" t="s">
+        <v>46</v>
+      </c>
+      <c r="H28" s="65"/>
+      <c r="I28" s="66" t="s">
+        <v>44</v>
+      </c>
+      <c r="J28" s="78">
+        <f>SUM(C8,C12,C16,C20,C24,J8,J12,J16,J20,J24)</f>
+        <v>201</v>
+      </c>
+      <c r="K28" s="88"/>
+      <c r="L28" s="88"/>
+      <c r="M28" s="88"/>
+    </row>
+    <row r="29" spans="1:13" s="1" customFormat="1" ht="18.75" customHeight="1">
+      <c r="H29" s="11"/>
+      <c r="I29" s="9" t="s">
+        <v>10</v>
+      </c>
+      <c r="J29" s="78">
+        <f>SUM(J26:J28)</f>
+        <v>25421</v>
+      </c>
+      <c r="K29" s="78">
+        <f>SUM(K26:K27)</f>
+        <v>33854</v>
+      </c>
+      <c r="L29" s="78">
+        <f>SUM(L26:L27)</f>
+        <v>35435</v>
+      </c>
+      <c r="M29" s="78">
+        <f>F9+F13+F17+F21+F25+M9+M13+M17+M21+M25</f>
+        <v>69289</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="A1:M1"/>
+  </mergeCells>
+  <phoneticPr fontId="2"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" scale="96" orientation="landscape"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet20.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1200-000000000000}">
   <dimension ref="A1:N26"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
@@ -9886,13 +11507,771 @@
   </mergeCells>
   <phoneticPr fontId="2"/>
   <pageMargins left="1.4" right="0.75" top="1" bottom="1" header="0.53" footer="0.51200000000000001"/>
-  <pageSetup paperSize="9" orientation="landscape" horizontalDpi="400" verticalDpi="400" r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="landscape" horizontalDpi="400" verticalDpi="400"/>
   <headerFooter alignWithMargins="0"/>
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<file path=xl/worksheets/sheet21.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1300-000000000000}">
+  <dimension ref="A1:M26"/>
+  <sheetViews>
+    <sheetView zoomScaleNormal="100" workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.5"/>
+  <cols>
+    <col min="1" max="16384" width="9" style="14"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:13" ht="18.75" customHeight="1"/>
+    <row r="2" spans="1:13" ht="30" customHeight="1">
+      <c r="A2" s="95" t="s">
+        <v>26</v>
+      </c>
+      <c r="B2" s="95"/>
+      <c r="C2" s="95"/>
+      <c r="D2" s="95"/>
+      <c r="E2" s="95"/>
+      <c r="F2" s="95"/>
+      <c r="G2" s="95"/>
+      <c r="H2" s="95"/>
+      <c r="I2" s="95"/>
+      <c r="J2" s="95"/>
+      <c r="K2" s="95"/>
+      <c r="L2" s="95"/>
+      <c r="M2" s="95"/>
+    </row>
+    <row r="3" spans="1:13" ht="18.75" customHeight="1"/>
+    <row r="4" spans="1:13" ht="18.75" customHeight="1">
+      <c r="A4" s="108"/>
+      <c r="B4" s="109"/>
+      <c r="C4" s="109"/>
+      <c r="D4" s="109"/>
+      <c r="L4" s="97" t="s">
+        <v>23</v>
+      </c>
+      <c r="M4" s="97"/>
+    </row>
+    <row r="5" spans="1:13" ht="18.75" customHeight="1">
+      <c r="L5" s="99" t="s">
+        <v>19</v>
+      </c>
+      <c r="M5" s="99"/>
+    </row>
+    <row r="6" spans="1:13" ht="18.75" customHeight="1">
+      <c r="A6" s="15" t="s">
+        <v>0</v>
+      </c>
+      <c r="B6" s="16" t="s">
+        <v>1</v>
+      </c>
+      <c r="C6" s="16" t="s">
+        <v>2</v>
+      </c>
+      <c r="D6" s="16" t="s">
+        <v>3</v>
+      </c>
+      <c r="E6" s="16" t="s">
+        <v>4</v>
+      </c>
+      <c r="F6" s="16" t="s">
+        <v>5</v>
+      </c>
+      <c r="H6" s="16" t="s">
+        <v>0</v>
+      </c>
+      <c r="I6" s="16" t="s">
+        <v>1</v>
+      </c>
+      <c r="J6" s="16" t="s">
+        <v>2</v>
+      </c>
+      <c r="K6" s="16" t="s">
+        <v>3</v>
+      </c>
+      <c r="L6" s="16" t="s">
+        <v>4</v>
+      </c>
+      <c r="M6" s="16" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="7" spans="1:13" ht="18.75" customHeight="1">
+      <c r="A7" s="17"/>
+      <c r="B7" s="18" t="s">
+        <v>6</v>
+      </c>
+      <c r="C7" s="19">
+        <v>4163</v>
+      </c>
+      <c r="D7" s="20">
+        <v>6262</v>
+      </c>
+      <c r="E7" s="20">
+        <v>6795</v>
+      </c>
+      <c r="F7" s="20">
+        <f t="shared" ref="F7:F21" si="0">SUM(D7:E7)</f>
+        <v>13057</v>
+      </c>
+      <c r="H7" s="17"/>
+      <c r="I7" s="21" t="s">
+        <v>6</v>
+      </c>
+      <c r="J7" s="20">
+        <v>2372</v>
+      </c>
+      <c r="K7" s="20">
+        <v>3906</v>
+      </c>
+      <c r="L7" s="20">
+        <v>3931</v>
+      </c>
+      <c r="M7" s="20">
+        <f t="shared" ref="M7:M21" si="1">SUM(K7:L7)</f>
+        <v>7837</v>
+      </c>
+    </row>
+    <row r="8" spans="1:13" ht="18.75" customHeight="1">
+      <c r="A8" s="22" t="s">
+        <v>7</v>
+      </c>
+      <c r="B8" s="18" t="s">
+        <v>8</v>
+      </c>
+      <c r="C8" s="20">
+        <v>184</v>
+      </c>
+      <c r="D8" s="20">
+        <v>63</v>
+      </c>
+      <c r="E8" s="20">
+        <v>160</v>
+      </c>
+      <c r="F8" s="20">
+        <f t="shared" si="0"/>
+        <v>223</v>
+      </c>
+      <c r="H8" s="22" t="s">
+        <v>9</v>
+      </c>
+      <c r="I8" s="21" t="s">
+        <v>8</v>
+      </c>
+      <c r="J8" s="20">
+        <v>62</v>
+      </c>
+      <c r="K8" s="20">
+        <v>61</v>
+      </c>
+      <c r="L8" s="20">
+        <v>67</v>
+      </c>
+      <c r="M8" s="20">
+        <f t="shared" si="1"/>
+        <v>128</v>
+      </c>
+    </row>
+    <row r="9" spans="1:13" ht="18.75" customHeight="1">
+      <c r="A9" s="22"/>
+      <c r="B9" s="18" t="s">
+        <v>10</v>
+      </c>
+      <c r="C9" s="20">
+        <f>SUM(C7:C8)</f>
+        <v>4347</v>
+      </c>
+      <c r="D9" s="20">
+        <f>SUM(D7:D8)</f>
+        <v>6325</v>
+      </c>
+      <c r="E9" s="20">
+        <f>SUM(E7:E8)</f>
+        <v>6955</v>
+      </c>
+      <c r="F9" s="20">
+        <f t="shared" si="0"/>
+        <v>13280</v>
+      </c>
+      <c r="H9" s="23"/>
+      <c r="I9" s="21" t="s">
+        <v>10</v>
+      </c>
+      <c r="J9" s="20">
+        <f>SUM(J7:J8)</f>
+        <v>2434</v>
+      </c>
+      <c r="K9" s="20">
+        <f>SUM(K7:K8)</f>
+        <v>3967</v>
+      </c>
+      <c r="L9" s="20">
+        <f>SUM(L7:L8)</f>
+        <v>3998</v>
+      </c>
+      <c r="M9" s="20">
+        <f t="shared" si="1"/>
+        <v>7965</v>
+      </c>
+    </row>
+    <row r="10" spans="1:13" ht="18.75" customHeight="1">
+      <c r="A10" s="17"/>
+      <c r="B10" s="18" t="s">
+        <v>6</v>
+      </c>
+      <c r="C10" s="20">
+        <v>1326</v>
+      </c>
+      <c r="D10" s="20">
+        <v>2242</v>
+      </c>
+      <c r="E10" s="20">
+        <v>2352</v>
+      </c>
+      <c r="F10" s="20">
+        <f t="shared" si="0"/>
+        <v>4594</v>
+      </c>
+      <c r="H10" s="17"/>
+      <c r="I10" s="21" t="s">
+        <v>6</v>
+      </c>
+      <c r="J10" s="20">
+        <v>1724</v>
+      </c>
+      <c r="K10" s="20">
+        <v>3113</v>
+      </c>
+      <c r="L10" s="20">
+        <v>3201</v>
+      </c>
+      <c r="M10" s="20">
+        <f t="shared" si="1"/>
+        <v>6314</v>
+      </c>
+    </row>
+    <row r="11" spans="1:13" ht="18.75" customHeight="1">
+      <c r="A11" s="22" t="s">
+        <v>11</v>
+      </c>
+      <c r="B11" s="18" t="s">
+        <v>8</v>
+      </c>
+      <c r="C11" s="20">
+        <v>34</v>
+      </c>
+      <c r="D11" s="20">
+        <v>21</v>
+      </c>
+      <c r="E11" s="20">
+        <v>20</v>
+      </c>
+      <c r="F11" s="20">
+        <f t="shared" si="0"/>
+        <v>41</v>
+      </c>
+      <c r="H11" s="22" t="s">
+        <v>12</v>
+      </c>
+      <c r="I11" s="21" t="s">
+        <v>8</v>
+      </c>
+      <c r="J11" s="20">
+        <v>45</v>
+      </c>
+      <c r="K11" s="20">
+        <v>17</v>
+      </c>
+      <c r="L11" s="20">
+        <v>39</v>
+      </c>
+      <c r="M11" s="20">
+        <f t="shared" si="1"/>
+        <v>56</v>
+      </c>
+    </row>
+    <row r="12" spans="1:13" ht="18.75" customHeight="1">
+      <c r="A12" s="22"/>
+      <c r="B12" s="18" t="s">
+        <v>10</v>
+      </c>
+      <c r="C12" s="20">
+        <f>SUM(C10:C11)</f>
+        <v>1360</v>
+      </c>
+      <c r="D12" s="20">
+        <f>SUM(D10:D11)</f>
+        <v>2263</v>
+      </c>
+      <c r="E12" s="20">
+        <f>SUM(E10:E11)</f>
+        <v>2372</v>
+      </c>
+      <c r="F12" s="20">
+        <f t="shared" si="0"/>
+        <v>4635</v>
+      </c>
+      <c r="H12" s="23"/>
+      <c r="I12" s="21" t="s">
+        <v>10</v>
+      </c>
+      <c r="J12" s="20">
+        <f>SUM(J10:J11)</f>
+        <v>1769</v>
+      </c>
+      <c r="K12" s="20">
+        <f>SUM(K10:K11)</f>
+        <v>3130</v>
+      </c>
+      <c r="L12" s="20">
+        <f>SUM(L10:L11)</f>
+        <v>3240</v>
+      </c>
+      <c r="M12" s="20">
+        <f t="shared" si="1"/>
+        <v>6370</v>
+      </c>
+    </row>
+    <row r="13" spans="1:13" ht="18.75" customHeight="1">
+      <c r="A13" s="17"/>
+      <c r="B13" s="18" t="s">
+        <v>6</v>
+      </c>
+      <c r="C13" s="20">
+        <v>4864</v>
+      </c>
+      <c r="D13" s="20">
+        <v>7453</v>
+      </c>
+      <c r="E13" s="20">
+        <v>7812</v>
+      </c>
+      <c r="F13" s="20">
+        <f t="shared" si="0"/>
+        <v>15265</v>
+      </c>
+      <c r="H13" s="17"/>
+      <c r="I13" s="21" t="s">
+        <v>6</v>
+      </c>
+      <c r="J13" s="20">
+        <v>1472</v>
+      </c>
+      <c r="K13" s="20">
+        <v>2178</v>
+      </c>
+      <c r="L13" s="20">
+        <v>2223</v>
+      </c>
+      <c r="M13" s="20">
+        <f t="shared" si="1"/>
+        <v>4401</v>
+      </c>
+    </row>
+    <row r="14" spans="1:13" ht="18.75" customHeight="1">
+      <c r="A14" s="22" t="s">
+        <v>13</v>
+      </c>
+      <c r="B14" s="18" t="s">
+        <v>8</v>
+      </c>
+      <c r="C14" s="20">
+        <v>255</v>
+      </c>
+      <c r="D14" s="20">
+        <v>209</v>
+      </c>
+      <c r="E14" s="20">
+        <v>167</v>
+      </c>
+      <c r="F14" s="20">
+        <f t="shared" si="0"/>
+        <v>376</v>
+      </c>
+      <c r="H14" s="22" t="s">
+        <v>14</v>
+      </c>
+      <c r="I14" s="21" t="s">
+        <v>8</v>
+      </c>
+      <c r="J14" s="20">
+        <v>39</v>
+      </c>
+      <c r="K14" s="20">
+        <v>26</v>
+      </c>
+      <c r="L14" s="20">
+        <v>29</v>
+      </c>
+      <c r="M14" s="20">
+        <f t="shared" si="1"/>
+        <v>55</v>
+      </c>
+    </row>
+    <row r="15" spans="1:13" ht="18.75" customHeight="1">
+      <c r="A15" s="23"/>
+      <c r="B15" s="18" t="s">
+        <v>10</v>
+      </c>
+      <c r="C15" s="20">
+        <f>SUM(C13:C14)</f>
+        <v>5119</v>
+      </c>
+      <c r="D15" s="20">
+        <f>SUM(D13:D14)</f>
+        <v>7662</v>
+      </c>
+      <c r="E15" s="20">
+        <f>SUM(E13:E14)</f>
+        <v>7979</v>
+      </c>
+      <c r="F15" s="20">
+        <f t="shared" si="0"/>
+        <v>15641</v>
+      </c>
+      <c r="H15" s="23"/>
+      <c r="I15" s="21" t="s">
+        <v>10</v>
+      </c>
+      <c r="J15" s="20">
+        <f>SUM(J13:J14)</f>
+        <v>1511</v>
+      </c>
+      <c r="K15" s="20">
+        <f>SUM(K13:K14)</f>
+        <v>2204</v>
+      </c>
+      <c r="L15" s="20">
+        <f>SUM(L13:L14)</f>
+        <v>2252</v>
+      </c>
+      <c r="M15" s="20">
+        <f t="shared" si="1"/>
+        <v>4456</v>
+      </c>
+    </row>
+    <row r="16" spans="1:13" ht="18.75" customHeight="1">
+      <c r="A16" s="22"/>
+      <c r="B16" s="18" t="s">
+        <v>6</v>
+      </c>
+      <c r="C16" s="20">
+        <v>1076</v>
+      </c>
+      <c r="D16" s="20">
+        <v>2055</v>
+      </c>
+      <c r="E16" s="20">
+        <v>2139</v>
+      </c>
+      <c r="F16" s="20">
+        <f t="shared" si="0"/>
+        <v>4194</v>
+      </c>
+      <c r="H16" s="17"/>
+      <c r="I16" s="21" t="s">
+        <v>6</v>
+      </c>
+      <c r="J16" s="20">
+        <v>767</v>
+      </c>
+      <c r="K16" s="20">
+        <v>1496</v>
+      </c>
+      <c r="L16" s="20">
+        <v>1700</v>
+      </c>
+      <c r="M16" s="20">
+        <f t="shared" si="1"/>
+        <v>3196</v>
+      </c>
+    </row>
+    <row r="17" spans="1:13" ht="18.75" customHeight="1">
+      <c r="A17" s="22" t="s">
+        <v>15</v>
+      </c>
+      <c r="B17" s="18" t="s">
+        <v>8</v>
+      </c>
+      <c r="C17" s="20">
+        <v>18</v>
+      </c>
+      <c r="D17" s="20">
+        <v>15</v>
+      </c>
+      <c r="E17" s="20">
+        <v>5</v>
+      </c>
+      <c r="F17" s="20">
+        <f t="shared" si="0"/>
+        <v>20</v>
+      </c>
+      <c r="H17" s="22" t="s">
+        <v>16</v>
+      </c>
+      <c r="I17" s="21" t="s">
+        <v>8</v>
+      </c>
+      <c r="J17" s="20">
+        <v>7</v>
+      </c>
+      <c r="K17" s="20">
+        <v>3</v>
+      </c>
+      <c r="L17" s="20">
+        <v>4</v>
+      </c>
+      <c r="M17" s="20">
+        <f t="shared" si="1"/>
+        <v>7</v>
+      </c>
+    </row>
+    <row r="18" spans="1:13" ht="18.75" customHeight="1">
+      <c r="A18" s="22"/>
+      <c r="B18" s="18" t="s">
+        <v>10</v>
+      </c>
+      <c r="C18" s="20">
+        <f>SUM(C16:C17)</f>
+        <v>1094</v>
+      </c>
+      <c r="D18" s="20">
+        <f>SUM(D16:D17)</f>
+        <v>2070</v>
+      </c>
+      <c r="E18" s="20">
+        <f>SUM(E16:E17)</f>
+        <v>2144</v>
+      </c>
+      <c r="F18" s="20">
+        <f t="shared" si="0"/>
+        <v>4214</v>
+      </c>
+      <c r="H18" s="23"/>
+      <c r="I18" s="21" t="s">
+        <v>10</v>
+      </c>
+      <c r="J18" s="20">
+        <f>SUM(J16:J17)</f>
+        <v>774</v>
+      </c>
+      <c r="K18" s="20">
+        <f>SUM(K16:K17)</f>
+        <v>1499</v>
+      </c>
+      <c r="L18" s="20">
+        <f>SUM(L16:L17)</f>
+        <v>1704</v>
+      </c>
+      <c r="M18" s="20">
+        <f t="shared" si="1"/>
+        <v>3203</v>
+      </c>
+    </row>
+    <row r="19" spans="1:13" ht="18.75" customHeight="1">
+      <c r="A19" s="17"/>
+      <c r="B19" s="18" t="s">
+        <v>6</v>
+      </c>
+      <c r="C19" s="20">
+        <v>527</v>
+      </c>
+      <c r="D19" s="20">
+        <v>995</v>
+      </c>
+      <c r="E19" s="20">
+        <v>1030</v>
+      </c>
+      <c r="F19" s="20">
+        <f t="shared" si="0"/>
+        <v>2025</v>
+      </c>
+      <c r="H19" s="17"/>
+      <c r="I19" s="21" t="s">
+        <v>6</v>
+      </c>
+      <c r="J19" s="20">
+        <v>1315</v>
+      </c>
+      <c r="K19" s="20">
+        <v>2534</v>
+      </c>
+      <c r="L19" s="20">
+        <v>2685</v>
+      </c>
+      <c r="M19" s="20">
+        <f t="shared" si="1"/>
+        <v>5219</v>
+      </c>
+    </row>
+    <row r="20" spans="1:13" ht="18.75" customHeight="1">
+      <c r="A20" s="22" t="s">
+        <v>17</v>
+      </c>
+      <c r="B20" s="18" t="s">
+        <v>8</v>
+      </c>
+      <c r="C20" s="20">
+        <v>5</v>
+      </c>
+      <c r="D20" s="20">
+        <v>3</v>
+      </c>
+      <c r="E20" s="20">
+        <v>5</v>
+      </c>
+      <c r="F20" s="20">
+        <f t="shared" si="0"/>
+        <v>8</v>
+      </c>
+      <c r="H20" s="22" t="s">
+        <v>18</v>
+      </c>
+      <c r="I20" s="21" t="s">
+        <v>8</v>
+      </c>
+      <c r="J20" s="20">
+        <v>11</v>
+      </c>
+      <c r="K20" s="20">
+        <v>0</v>
+      </c>
+      <c r="L20" s="20">
+        <v>11</v>
+      </c>
+      <c r="M20" s="20">
+        <f t="shared" si="1"/>
+        <v>11</v>
+      </c>
+    </row>
+    <row r="21" spans="1:13" ht="18.75" customHeight="1">
+      <c r="A21" s="23"/>
+      <c r="B21" s="18" t="s">
+        <v>10</v>
+      </c>
+      <c r="C21" s="20">
+        <f>SUM(C19:C20)</f>
+        <v>532</v>
+      </c>
+      <c r="D21" s="20">
+        <f>SUM(D19:D20)</f>
+        <v>998</v>
+      </c>
+      <c r="E21" s="20">
+        <f>SUM(E19:E20)</f>
+        <v>1035</v>
+      </c>
+      <c r="F21" s="20">
+        <f t="shared" si="0"/>
+        <v>2033</v>
+      </c>
+      <c r="H21" s="23"/>
+      <c r="I21" s="21" t="s">
+        <v>10</v>
+      </c>
+      <c r="J21" s="20">
+        <f>SUM(J19:J20)</f>
+        <v>1326</v>
+      </c>
+      <c r="K21" s="20">
+        <f>SUM(K19:K20)</f>
+        <v>2534</v>
+      </c>
+      <c r="L21" s="20">
+        <f>SUM(L19:L20)</f>
+        <v>2696</v>
+      </c>
+      <c r="M21" s="20">
+        <f t="shared" si="1"/>
+        <v>5230</v>
+      </c>
+    </row>
+    <row r="22" spans="1:13" ht="18.75" customHeight="1">
+      <c r="H22" s="17"/>
+      <c r="I22" s="21" t="s">
+        <v>6</v>
+      </c>
+      <c r="J22" s="20">
+        <f t="shared" ref="J22:M24" si="2">C7+C10+C13+C16+C19+J7+J10+J13+J16+J19</f>
+        <v>19606</v>
+      </c>
+      <c r="K22" s="20">
+        <f t="shared" si="2"/>
+        <v>32234</v>
+      </c>
+      <c r="L22" s="20">
+        <f t="shared" si="2"/>
+        <v>33868</v>
+      </c>
+      <c r="M22" s="20">
+        <f t="shared" si="2"/>
+        <v>66102</v>
+      </c>
+    </row>
+    <row r="23" spans="1:13" ht="18.75" customHeight="1">
+      <c r="H23" s="22" t="s">
+        <v>5</v>
+      </c>
+      <c r="I23" s="21" t="s">
+        <v>8</v>
+      </c>
+      <c r="J23" s="20">
+        <f t="shared" si="2"/>
+        <v>660</v>
+      </c>
+      <c r="K23" s="20">
+        <f t="shared" si="2"/>
+        <v>418</v>
+      </c>
+      <c r="L23" s="20">
+        <f t="shared" si="2"/>
+        <v>507</v>
+      </c>
+      <c r="M23" s="20">
+        <f t="shared" si="2"/>
+        <v>925</v>
+      </c>
+    </row>
+    <row r="24" spans="1:13" ht="18.75" customHeight="1">
+      <c r="H24" s="23"/>
+      <c r="I24" s="21" t="s">
+        <v>10</v>
+      </c>
+      <c r="J24" s="20">
+        <f t="shared" si="2"/>
+        <v>20266</v>
+      </c>
+      <c r="K24" s="20">
+        <f t="shared" si="2"/>
+        <v>32652</v>
+      </c>
+      <c r="L24" s="20">
+        <f t="shared" si="2"/>
+        <v>34375</v>
+      </c>
+      <c r="M24" s="20">
+        <f t="shared" si="2"/>
+        <v>67027</v>
+      </c>
+    </row>
+    <row r="25" spans="1:13" ht="18.75" customHeight="1"/>
+    <row r="26" spans="1:13" ht="18.75" customHeight="1"/>
+  </sheetData>
+  <mergeCells count="4">
+    <mergeCell ref="A2:M2"/>
+    <mergeCell ref="A4:D4"/>
+    <mergeCell ref="L4:M4"/>
+    <mergeCell ref="L5:M5"/>
+  </mergeCells>
+  <phoneticPr fontId="2"/>
+  <pageMargins left="1.4" right="0.75" top="1" bottom="1" header="0.53" footer="0.51200000000000001"/>
+  <pageSetup paperSize="9" orientation="landscape" horizontalDpi="400" verticalDpi="400"/>
+  <headerFooter alignWithMargins="0"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:N29"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
@@ -10704,770 +13083,12 @@
   </mergeCells>
   <phoneticPr fontId="2"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" scale="96" orientation="landscape" r:id="rId1"/>
+  <pageSetup paperSize="9" scale="96" orientation="landscape"/>
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet20.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:M26"/>
-  <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5"/>
-  <cols>
-    <col min="1" max="16384" width="9" style="14"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:13" ht="18.75" customHeight="1"/>
-    <row r="2" spans="1:13" ht="30" customHeight="1">
-      <c r="A2" s="95" t="s">
-        <v>26</v>
-      </c>
-      <c r="B2" s="95"/>
-      <c r="C2" s="95"/>
-      <c r="D2" s="95"/>
-      <c r="E2" s="95"/>
-      <c r="F2" s="95"/>
-      <c r="G2" s="95"/>
-      <c r="H2" s="95"/>
-      <c r="I2" s="95"/>
-      <c r="J2" s="95"/>
-      <c r="K2" s="95"/>
-      <c r="L2" s="95"/>
-      <c r="M2" s="95"/>
-    </row>
-    <row r="3" spans="1:13" ht="18.75" customHeight="1"/>
-    <row r="4" spans="1:13" ht="18.75" customHeight="1">
-      <c r="A4" s="108"/>
-      <c r="B4" s="109"/>
-      <c r="C4" s="109"/>
-      <c r="D4" s="109"/>
-      <c r="L4" s="97" t="s">
-        <v>23</v>
-      </c>
-      <c r="M4" s="97"/>
-    </row>
-    <row r="5" spans="1:13" ht="18.75" customHeight="1">
-      <c r="L5" s="99" t="s">
-        <v>19</v>
-      </c>
-      <c r="M5" s="99"/>
-    </row>
-    <row r="6" spans="1:13" ht="18.75" customHeight="1">
-      <c r="A6" s="15" t="s">
-        <v>0</v>
-      </c>
-      <c r="B6" s="16" t="s">
-        <v>1</v>
-      </c>
-      <c r="C6" s="16" t="s">
-        <v>2</v>
-      </c>
-      <c r="D6" s="16" t="s">
-        <v>3</v>
-      </c>
-      <c r="E6" s="16" t="s">
-        <v>4</v>
-      </c>
-      <c r="F6" s="16" t="s">
-        <v>5</v>
-      </c>
-      <c r="H6" s="16" t="s">
-        <v>0</v>
-      </c>
-      <c r="I6" s="16" t="s">
-        <v>1</v>
-      </c>
-      <c r="J6" s="16" t="s">
-        <v>2</v>
-      </c>
-      <c r="K6" s="16" t="s">
-        <v>3</v>
-      </c>
-      <c r="L6" s="16" t="s">
-        <v>4</v>
-      </c>
-      <c r="M6" s="16" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="7" spans="1:13" ht="18.75" customHeight="1">
-      <c r="A7" s="17"/>
-      <c r="B7" s="18" t="s">
-        <v>6</v>
-      </c>
-      <c r="C7" s="19">
-        <v>4163</v>
-      </c>
-      <c r="D7" s="20">
-        <v>6262</v>
-      </c>
-      <c r="E7" s="20">
-        <v>6795</v>
-      </c>
-      <c r="F7" s="20">
-        <f t="shared" ref="F7:F21" si="0">SUM(D7:E7)</f>
-        <v>13057</v>
-      </c>
-      <c r="H7" s="17"/>
-      <c r="I7" s="21" t="s">
-        <v>6</v>
-      </c>
-      <c r="J7" s="20">
-        <v>2372</v>
-      </c>
-      <c r="K7" s="20">
-        <v>3906</v>
-      </c>
-      <c r="L7" s="20">
-        <v>3931</v>
-      </c>
-      <c r="M7" s="20">
-        <f t="shared" ref="M7:M21" si="1">SUM(K7:L7)</f>
-        <v>7837</v>
-      </c>
-    </row>
-    <row r="8" spans="1:13" ht="18.75" customHeight="1">
-      <c r="A8" s="22" t="s">
-        <v>7</v>
-      </c>
-      <c r="B8" s="18" t="s">
-        <v>8</v>
-      </c>
-      <c r="C8" s="20">
-        <v>184</v>
-      </c>
-      <c r="D8" s="20">
-        <v>63</v>
-      </c>
-      <c r="E8" s="20">
-        <v>160</v>
-      </c>
-      <c r="F8" s="20">
-        <f t="shared" si="0"/>
-        <v>223</v>
-      </c>
-      <c r="H8" s="22" t="s">
-        <v>9</v>
-      </c>
-      <c r="I8" s="21" t="s">
-        <v>8</v>
-      </c>
-      <c r="J8" s="20">
-        <v>62</v>
-      </c>
-      <c r="K8" s="20">
-        <v>61</v>
-      </c>
-      <c r="L8" s="20">
-        <v>67</v>
-      </c>
-      <c r="M8" s="20">
-        <f t="shared" si="1"/>
-        <v>128</v>
-      </c>
-    </row>
-    <row r="9" spans="1:13" ht="18.75" customHeight="1">
-      <c r="A9" s="22"/>
-      <c r="B9" s="18" t="s">
-        <v>10</v>
-      </c>
-      <c r="C9" s="20">
-        <f>SUM(C7:C8)</f>
-        <v>4347</v>
-      </c>
-      <c r="D9" s="20">
-        <f>SUM(D7:D8)</f>
-        <v>6325</v>
-      </c>
-      <c r="E9" s="20">
-        <f>SUM(E7:E8)</f>
-        <v>6955</v>
-      </c>
-      <c r="F9" s="20">
-        <f t="shared" si="0"/>
-        <v>13280</v>
-      </c>
-      <c r="H9" s="23"/>
-      <c r="I9" s="21" t="s">
-        <v>10</v>
-      </c>
-      <c r="J9" s="20">
-        <f>SUM(J7:J8)</f>
-        <v>2434</v>
-      </c>
-      <c r="K9" s="20">
-        <f>SUM(K7:K8)</f>
-        <v>3967</v>
-      </c>
-      <c r="L9" s="20">
-        <f>SUM(L7:L8)</f>
-        <v>3998</v>
-      </c>
-      <c r="M9" s="20">
-        <f t="shared" si="1"/>
-        <v>7965</v>
-      </c>
-    </row>
-    <row r="10" spans="1:13" ht="18.75" customHeight="1">
-      <c r="A10" s="17"/>
-      <c r="B10" s="18" t="s">
-        <v>6</v>
-      </c>
-      <c r="C10" s="20">
-        <v>1326</v>
-      </c>
-      <c r="D10" s="20">
-        <v>2242</v>
-      </c>
-      <c r="E10" s="20">
-        <v>2352</v>
-      </c>
-      <c r="F10" s="20">
-        <f t="shared" si="0"/>
-        <v>4594</v>
-      </c>
-      <c r="H10" s="17"/>
-      <c r="I10" s="21" t="s">
-        <v>6</v>
-      </c>
-      <c r="J10" s="20">
-        <v>1724</v>
-      </c>
-      <c r="K10" s="20">
-        <v>3113</v>
-      </c>
-      <c r="L10" s="20">
-        <v>3201</v>
-      </c>
-      <c r="M10" s="20">
-        <f t="shared" si="1"/>
-        <v>6314</v>
-      </c>
-    </row>
-    <row r="11" spans="1:13" ht="18.75" customHeight="1">
-      <c r="A11" s="22" t="s">
-        <v>11</v>
-      </c>
-      <c r="B11" s="18" t="s">
-        <v>8</v>
-      </c>
-      <c r="C11" s="20">
-        <v>34</v>
-      </c>
-      <c r="D11" s="20">
-        <v>21</v>
-      </c>
-      <c r="E11" s="20">
-        <v>20</v>
-      </c>
-      <c r="F11" s="20">
-        <f t="shared" si="0"/>
-        <v>41</v>
-      </c>
-      <c r="H11" s="22" t="s">
-        <v>12</v>
-      </c>
-      <c r="I11" s="21" t="s">
-        <v>8</v>
-      </c>
-      <c r="J11" s="20">
-        <v>45</v>
-      </c>
-      <c r="K11" s="20">
-        <v>17</v>
-      </c>
-      <c r="L11" s="20">
-        <v>39</v>
-      </c>
-      <c r="M11" s="20">
-        <f t="shared" si="1"/>
-        <v>56</v>
-      </c>
-    </row>
-    <row r="12" spans="1:13" ht="18.75" customHeight="1">
-      <c r="A12" s="22"/>
-      <c r="B12" s="18" t="s">
-        <v>10</v>
-      </c>
-      <c r="C12" s="20">
-        <f>SUM(C10:C11)</f>
-        <v>1360</v>
-      </c>
-      <c r="D12" s="20">
-        <f>SUM(D10:D11)</f>
-        <v>2263</v>
-      </c>
-      <c r="E12" s="20">
-        <f>SUM(E10:E11)</f>
-        <v>2372</v>
-      </c>
-      <c r="F12" s="20">
-        <f t="shared" si="0"/>
-        <v>4635</v>
-      </c>
-      <c r="H12" s="23"/>
-      <c r="I12" s="21" t="s">
-        <v>10</v>
-      </c>
-      <c r="J12" s="20">
-        <f>SUM(J10:J11)</f>
-        <v>1769</v>
-      </c>
-      <c r="K12" s="20">
-        <f>SUM(K10:K11)</f>
-        <v>3130</v>
-      </c>
-      <c r="L12" s="20">
-        <f>SUM(L10:L11)</f>
-        <v>3240</v>
-      </c>
-      <c r="M12" s="20">
-        <f t="shared" si="1"/>
-        <v>6370</v>
-      </c>
-    </row>
-    <row r="13" spans="1:13" ht="18.75" customHeight="1">
-      <c r="A13" s="17"/>
-      <c r="B13" s="18" t="s">
-        <v>6</v>
-      </c>
-      <c r="C13" s="20">
-        <v>4864</v>
-      </c>
-      <c r="D13" s="20">
-        <v>7453</v>
-      </c>
-      <c r="E13" s="20">
-        <v>7812</v>
-      </c>
-      <c r="F13" s="20">
-        <f t="shared" si="0"/>
-        <v>15265</v>
-      </c>
-      <c r="H13" s="17"/>
-      <c r="I13" s="21" t="s">
-        <v>6</v>
-      </c>
-      <c r="J13" s="20">
-        <v>1472</v>
-      </c>
-      <c r="K13" s="20">
-        <v>2178</v>
-      </c>
-      <c r="L13" s="20">
-        <v>2223</v>
-      </c>
-      <c r="M13" s="20">
-        <f t="shared" si="1"/>
-        <v>4401</v>
-      </c>
-    </row>
-    <row r="14" spans="1:13" ht="18.75" customHeight="1">
-      <c r="A14" s="22" t="s">
-        <v>13</v>
-      </c>
-      <c r="B14" s="18" t="s">
-        <v>8</v>
-      </c>
-      <c r="C14" s="20">
-        <v>255</v>
-      </c>
-      <c r="D14" s="20">
-        <v>209</v>
-      </c>
-      <c r="E14" s="20">
-        <v>167</v>
-      </c>
-      <c r="F14" s="20">
-        <f t="shared" si="0"/>
-        <v>376</v>
-      </c>
-      <c r="H14" s="22" t="s">
-        <v>14</v>
-      </c>
-      <c r="I14" s="21" t="s">
-        <v>8</v>
-      </c>
-      <c r="J14" s="20">
-        <v>39</v>
-      </c>
-      <c r="K14" s="20">
-        <v>26</v>
-      </c>
-      <c r="L14" s="20">
-        <v>29</v>
-      </c>
-      <c r="M14" s="20">
-        <f t="shared" si="1"/>
-        <v>55</v>
-      </c>
-    </row>
-    <row r="15" spans="1:13" ht="18.75" customHeight="1">
-      <c r="A15" s="23"/>
-      <c r="B15" s="18" t="s">
-        <v>10</v>
-      </c>
-      <c r="C15" s="20">
-        <f>SUM(C13:C14)</f>
-        <v>5119</v>
-      </c>
-      <c r="D15" s="20">
-        <f>SUM(D13:D14)</f>
-        <v>7662</v>
-      </c>
-      <c r="E15" s="20">
-        <f>SUM(E13:E14)</f>
-        <v>7979</v>
-      </c>
-      <c r="F15" s="20">
-        <f t="shared" si="0"/>
-        <v>15641</v>
-      </c>
-      <c r="H15" s="23"/>
-      <c r="I15" s="21" t="s">
-        <v>10</v>
-      </c>
-      <c r="J15" s="20">
-        <f>SUM(J13:J14)</f>
-        <v>1511</v>
-      </c>
-      <c r="K15" s="20">
-        <f>SUM(K13:K14)</f>
-        <v>2204</v>
-      </c>
-      <c r="L15" s="20">
-        <f>SUM(L13:L14)</f>
-        <v>2252</v>
-      </c>
-      <c r="M15" s="20">
-        <f t="shared" si="1"/>
-        <v>4456</v>
-      </c>
-    </row>
-    <row r="16" spans="1:13" ht="18.75" customHeight="1">
-      <c r="A16" s="22"/>
-      <c r="B16" s="18" t="s">
-        <v>6</v>
-      </c>
-      <c r="C16" s="20">
-        <v>1076</v>
-      </c>
-      <c r="D16" s="20">
-        <v>2055</v>
-      </c>
-      <c r="E16" s="20">
-        <v>2139</v>
-      </c>
-      <c r="F16" s="20">
-        <f t="shared" si="0"/>
-        <v>4194</v>
-      </c>
-      <c r="H16" s="17"/>
-      <c r="I16" s="21" t="s">
-        <v>6</v>
-      </c>
-      <c r="J16" s="20">
-        <v>767</v>
-      </c>
-      <c r="K16" s="20">
-        <v>1496</v>
-      </c>
-      <c r="L16" s="20">
-        <v>1700</v>
-      </c>
-      <c r="M16" s="20">
-        <f t="shared" si="1"/>
-        <v>3196</v>
-      </c>
-    </row>
-    <row r="17" spans="1:13" ht="18.75" customHeight="1">
-      <c r="A17" s="22" t="s">
-        <v>15</v>
-      </c>
-      <c r="B17" s="18" t="s">
-        <v>8</v>
-      </c>
-      <c r="C17" s="20">
-        <v>18</v>
-      </c>
-      <c r="D17" s="20">
-        <v>15</v>
-      </c>
-      <c r="E17" s="20">
-        <v>5</v>
-      </c>
-      <c r="F17" s="20">
-        <f t="shared" si="0"/>
-        <v>20</v>
-      </c>
-      <c r="H17" s="22" t="s">
-        <v>16</v>
-      </c>
-      <c r="I17" s="21" t="s">
-        <v>8</v>
-      </c>
-      <c r="J17" s="20">
-        <v>7</v>
-      </c>
-      <c r="K17" s="20">
-        <v>3</v>
-      </c>
-      <c r="L17" s="20">
-        <v>4</v>
-      </c>
-      <c r="M17" s="20">
-        <f t="shared" si="1"/>
-        <v>7</v>
-      </c>
-    </row>
-    <row r="18" spans="1:13" ht="18.75" customHeight="1">
-      <c r="A18" s="22"/>
-      <c r="B18" s="18" t="s">
-        <v>10</v>
-      </c>
-      <c r="C18" s="20">
-        <f>SUM(C16:C17)</f>
-        <v>1094</v>
-      </c>
-      <c r="D18" s="20">
-        <f>SUM(D16:D17)</f>
-        <v>2070</v>
-      </c>
-      <c r="E18" s="20">
-        <f>SUM(E16:E17)</f>
-        <v>2144</v>
-      </c>
-      <c r="F18" s="20">
-        <f t="shared" si="0"/>
-        <v>4214</v>
-      </c>
-      <c r="H18" s="23"/>
-      <c r="I18" s="21" t="s">
-        <v>10</v>
-      </c>
-      <c r="J18" s="20">
-        <f>SUM(J16:J17)</f>
-        <v>774</v>
-      </c>
-      <c r="K18" s="20">
-        <f>SUM(K16:K17)</f>
-        <v>1499</v>
-      </c>
-      <c r="L18" s="20">
-        <f>SUM(L16:L17)</f>
-        <v>1704</v>
-      </c>
-      <c r="M18" s="20">
-        <f t="shared" si="1"/>
-        <v>3203</v>
-      </c>
-    </row>
-    <row r="19" spans="1:13" ht="18.75" customHeight="1">
-      <c r="A19" s="17"/>
-      <c r="B19" s="18" t="s">
-        <v>6</v>
-      </c>
-      <c r="C19" s="20">
-        <v>527</v>
-      </c>
-      <c r="D19" s="20">
-        <v>995</v>
-      </c>
-      <c r="E19" s="20">
-        <v>1030</v>
-      </c>
-      <c r="F19" s="20">
-        <f t="shared" si="0"/>
-        <v>2025</v>
-      </c>
-      <c r="H19" s="17"/>
-      <c r="I19" s="21" t="s">
-        <v>6</v>
-      </c>
-      <c r="J19" s="20">
-        <v>1315</v>
-      </c>
-      <c r="K19" s="20">
-        <v>2534</v>
-      </c>
-      <c r="L19" s="20">
-        <v>2685</v>
-      </c>
-      <c r="M19" s="20">
-        <f t="shared" si="1"/>
-        <v>5219</v>
-      </c>
-    </row>
-    <row r="20" spans="1:13" ht="18.75" customHeight="1">
-      <c r="A20" s="22" t="s">
-        <v>17</v>
-      </c>
-      <c r="B20" s="18" t="s">
-        <v>8</v>
-      </c>
-      <c r="C20" s="20">
-        <v>5</v>
-      </c>
-      <c r="D20" s="20">
-        <v>3</v>
-      </c>
-      <c r="E20" s="20">
-        <v>5</v>
-      </c>
-      <c r="F20" s="20">
-        <f t="shared" si="0"/>
-        <v>8</v>
-      </c>
-      <c r="H20" s="22" t="s">
-        <v>18</v>
-      </c>
-      <c r="I20" s="21" t="s">
-        <v>8</v>
-      </c>
-      <c r="J20" s="20">
-        <v>11</v>
-      </c>
-      <c r="K20" s="20">
-        <v>0</v>
-      </c>
-      <c r="L20" s="20">
-        <v>11</v>
-      </c>
-      <c r="M20" s="20">
-        <f t="shared" si="1"/>
-        <v>11</v>
-      </c>
-    </row>
-    <row r="21" spans="1:13" ht="18.75" customHeight="1">
-      <c r="A21" s="23"/>
-      <c r="B21" s="18" t="s">
-        <v>10</v>
-      </c>
-      <c r="C21" s="20">
-        <f>SUM(C19:C20)</f>
-        <v>532</v>
-      </c>
-      <c r="D21" s="20">
-        <f>SUM(D19:D20)</f>
-        <v>998</v>
-      </c>
-      <c r="E21" s="20">
-        <f>SUM(E19:E20)</f>
-        <v>1035</v>
-      </c>
-      <c r="F21" s="20">
-        <f t="shared" si="0"/>
-        <v>2033</v>
-      </c>
-      <c r="H21" s="23"/>
-      <c r="I21" s="21" t="s">
-        <v>10</v>
-      </c>
-      <c r="J21" s="20">
-        <f>SUM(J19:J20)</f>
-        <v>1326</v>
-      </c>
-      <c r="K21" s="20">
-        <f>SUM(K19:K20)</f>
-        <v>2534</v>
-      </c>
-      <c r="L21" s="20">
-        <f>SUM(L19:L20)</f>
-        <v>2696</v>
-      </c>
-      <c r="M21" s="20">
-        <f t="shared" si="1"/>
-        <v>5230</v>
-      </c>
-    </row>
-    <row r="22" spans="1:13" ht="18.75" customHeight="1">
-      <c r="H22" s="17"/>
-      <c r="I22" s="21" t="s">
-        <v>6</v>
-      </c>
-      <c r="J22" s="20">
-        <f t="shared" ref="J22:M24" si="2">C7+C10+C13+C16+C19+J7+J10+J13+J16+J19</f>
-        <v>19606</v>
-      </c>
-      <c r="K22" s="20">
-        <f t="shared" si="2"/>
-        <v>32234</v>
-      </c>
-      <c r="L22" s="20">
-        <f t="shared" si="2"/>
-        <v>33868</v>
-      </c>
-      <c r="M22" s="20">
-        <f t="shared" si="2"/>
-        <v>66102</v>
-      </c>
-    </row>
-    <row r="23" spans="1:13" ht="18.75" customHeight="1">
-      <c r="H23" s="22" t="s">
-        <v>5</v>
-      </c>
-      <c r="I23" s="21" t="s">
-        <v>8</v>
-      </c>
-      <c r="J23" s="20">
-        <f t="shared" si="2"/>
-        <v>660</v>
-      </c>
-      <c r="K23" s="20">
-        <f t="shared" si="2"/>
-        <v>418</v>
-      </c>
-      <c r="L23" s="20">
-        <f t="shared" si="2"/>
-        <v>507</v>
-      </c>
-      <c r="M23" s="20">
-        <f t="shared" si="2"/>
-        <v>925</v>
-      </c>
-    </row>
-    <row r="24" spans="1:13" ht="18.75" customHeight="1">
-      <c r="H24" s="23"/>
-      <c r="I24" s="21" t="s">
-        <v>10</v>
-      </c>
-      <c r="J24" s="20">
-        <f t="shared" si="2"/>
-        <v>20266</v>
-      </c>
-      <c r="K24" s="20">
-        <f t="shared" si="2"/>
-        <v>32652</v>
-      </c>
-      <c r="L24" s="20">
-        <f t="shared" si="2"/>
-        <v>34375</v>
-      </c>
-      <c r="M24" s="20">
-        <f t="shared" si="2"/>
-        <v>67027</v>
-      </c>
-    </row>
-    <row r="25" spans="1:13" ht="18.75" customHeight="1"/>
-    <row r="26" spans="1:13" ht="18.75" customHeight="1"/>
-  </sheetData>
-  <mergeCells count="4">
-    <mergeCell ref="A2:M2"/>
-    <mergeCell ref="A4:D4"/>
-    <mergeCell ref="L4:M4"/>
-    <mergeCell ref="L5:M5"/>
-  </mergeCells>
-  <phoneticPr fontId="2"/>
-  <pageMargins left="1.4" right="0.75" top="1" bottom="1" header="0.53" footer="0.51200000000000001"/>
-  <pageSetup paperSize="9" orientation="landscape" horizontalDpi="400" verticalDpi="400" r:id="rId1"/>
-  <headerFooter alignWithMargins="0"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
@@ -12359,13 +13980,13 @@
   </mergeCells>
   <phoneticPr fontId="2"/>
   <pageMargins left="0.94488188976377963" right="0.74803149606299213" top="0.98425196850393704" bottom="0.98425196850393704" header="0.51181102362204722" footer="0.51181102362204722"/>
-  <pageSetup paperSize="9" scale="91" orientation="landscape" r:id="rId1"/>
+  <pageSetup paperSize="9" scale="91" orientation="landscape"/>
   <headerFooter alignWithMargins="0"/>
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
@@ -13257,13 +14878,13 @@
   </mergeCells>
   <phoneticPr fontId="2"/>
   <pageMargins left="0.94488188976377963" right="0.74803149606299213" top="0.98425196850393704" bottom="0.98425196850393704" header="0.51181102362204722" footer="0.51181102362204722"/>
-  <pageSetup paperSize="9" scale="91" orientation="landscape" r:id="rId1"/>
+  <pageSetup paperSize="9" scale="91" orientation="landscape"/>
   <headerFooter alignWithMargins="0"/>
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
@@ -14155,13 +15776,13 @@
   </mergeCells>
   <phoneticPr fontId="2"/>
   <pageMargins left="0.94488188976377963" right="0.74803149606299213" top="0.98425196850393704" bottom="0.98425196850393704" header="0.51181102362204722" footer="0.51181102362204722"/>
-  <pageSetup paperSize="9" scale="91" orientation="landscape" r:id="rId1"/>
+  <pageSetup paperSize="9" scale="91" orientation="landscape"/>
   <headerFooter alignWithMargins="0"/>
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
@@ -15027,13 +16648,13 @@
   </mergeCells>
   <phoneticPr fontId="2"/>
   <pageMargins left="0.94488188976377963" right="0.74803149606299213" top="0.98425196850393704" bottom="0.98425196850393704" header="0.51181102362204722" footer="0.51181102362204722"/>
-  <pageSetup paperSize="9" scale="91" orientation="landscape" r:id="rId1"/>
+  <pageSetup paperSize="9" scale="91" orientation="landscape"/>
   <headerFooter alignWithMargins="0"/>
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
@@ -15921,13 +17542,13 @@
   </mergeCells>
   <phoneticPr fontId="2"/>
   <pageMargins left="0.94488188976377963" right="0.74803149606299213" top="0.98425196850393704" bottom="0.98425196850393704" header="0.51181102362204722" footer="0.51181102362204722"/>
-  <pageSetup paperSize="9" scale="91" orientation="landscape" r:id="rId1"/>
+  <pageSetup paperSize="9" scale="91" orientation="landscape"/>
   <headerFooter alignWithMargins="0"/>
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0700-000000000000}">
   <dimension ref="A1:N26"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -16693,704 +18314,7 @@
   </mergeCells>
   <phoneticPr fontId="2"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.51200000000000001" footer="0.51200000000000001"/>
-  <pageSetup paperSize="9" orientation="landscape" r:id="rId1"/>
-  <headerFooter alignWithMargins="0"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:N26"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D27" sqref="D27"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5"/>
-  <cols>
-    <col min="1" max="3" width="9" style="1"/>
-    <col min="4" max="4" width="10.25" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="9" width="9" style="1"/>
-    <col min="10" max="10" width="9" style="1" customWidth="1"/>
-    <col min="11" max="16384" width="9" style="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:14" ht="18.75" customHeight="1"/>
-    <row r="2" spans="1:14" ht="30" customHeight="1">
-      <c r="A2" s="95" t="s">
-        <v>26</v>
-      </c>
-      <c r="B2" s="95"/>
-      <c r="C2" s="95"/>
-      <c r="D2" s="95"/>
-      <c r="E2" s="95"/>
-      <c r="F2" s="95"/>
-      <c r="G2" s="95"/>
-      <c r="H2" s="95"/>
-      <c r="I2" s="95"/>
-      <c r="J2" s="95"/>
-      <c r="K2" s="95"/>
-      <c r="L2" s="95"/>
-      <c r="M2" s="95"/>
-    </row>
-    <row r="3" spans="1:14" ht="30" customHeight="1">
-      <c r="A3" s="56"/>
-      <c r="B3" s="57"/>
-      <c r="C3" s="57"/>
-      <c r="D3" s="57"/>
-      <c r="E3" s="57"/>
-      <c r="F3" s="57"/>
-      <c r="G3" s="57"/>
-      <c r="H3" s="57"/>
-      <c r="I3" s="57"/>
-      <c r="L3" s="54" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="4" spans="1:14" ht="18.75" customHeight="1">
-      <c r="L4" s="55" t="s">
-        <v>19</v>
-      </c>
-      <c r="M4" s="58"/>
-    </row>
-    <row r="5" spans="1:14" ht="18.75" customHeight="1"/>
-    <row r="6" spans="1:14" ht="18.75" customHeight="1">
-      <c r="A6" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="B6" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="C6" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="D6" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="E6" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="F6" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="H6" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="I6" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="J6" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="K6" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="L6" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="M6" s="3" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="7" spans="1:14" ht="18.75" customHeight="1">
-      <c r="A7" s="4"/>
-      <c r="B7" s="5" t="s">
-        <v>6</v>
-      </c>
-      <c r="C7" s="51">
-        <v>4512</v>
-      </c>
-      <c r="D7" s="52">
-        <v>6186</v>
-      </c>
-      <c r="E7" s="52">
-        <v>6681</v>
-      </c>
-      <c r="F7" s="8">
-        <v>12867</v>
-      </c>
-      <c r="H7" s="4"/>
-      <c r="I7" s="9" t="s">
-        <v>6</v>
-      </c>
-      <c r="J7" s="52">
-        <v>3145</v>
-      </c>
-      <c r="K7" s="52">
-        <v>4671</v>
-      </c>
-      <c r="L7" s="52">
-        <v>4826</v>
-      </c>
-      <c r="M7" s="8">
-        <v>9497</v>
-      </c>
-    </row>
-    <row r="8" spans="1:14" ht="18.75" customHeight="1">
-      <c r="A8" s="10" t="s">
-        <v>7</v>
-      </c>
-      <c r="B8" s="5" t="s">
-        <v>8</v>
-      </c>
-      <c r="C8" s="52">
-        <v>98</v>
-      </c>
-      <c r="D8" s="52">
-        <v>50</v>
-      </c>
-      <c r="E8" s="52">
-        <v>87</v>
-      </c>
-      <c r="F8" s="53">
-        <v>137</v>
-      </c>
-      <c r="H8" s="10" t="s">
-        <v>9</v>
-      </c>
-      <c r="I8" s="9" t="s">
-        <v>8</v>
-      </c>
-      <c r="J8" s="52">
-        <v>77</v>
-      </c>
-      <c r="K8" s="52">
-        <v>53</v>
-      </c>
-      <c r="L8" s="52">
-        <v>78</v>
-      </c>
-      <c r="M8" s="53">
-        <v>131</v>
-      </c>
-    </row>
-    <row r="9" spans="1:14" ht="18.75" customHeight="1">
-      <c r="A9" s="10"/>
-      <c r="B9" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="C9" s="53">
-        <v>4610</v>
-      </c>
-      <c r="D9" s="53">
-        <v>6236</v>
-      </c>
-      <c r="E9" s="53">
-        <v>6768</v>
-      </c>
-      <c r="F9" s="53">
-        <v>13004</v>
-      </c>
-      <c r="H9" s="11"/>
-      <c r="I9" s="9" t="s">
-        <v>10</v>
-      </c>
-      <c r="J9" s="8">
-        <v>3222</v>
-      </c>
-      <c r="K9" s="8">
-        <v>4724</v>
-      </c>
-      <c r="L9" s="8">
-        <v>4904</v>
-      </c>
-      <c r="M9" s="8">
-        <v>9628</v>
-      </c>
-    </row>
-    <row r="10" spans="1:14" ht="18.75" customHeight="1">
-      <c r="A10" s="4"/>
-      <c r="B10" s="5" t="s">
-        <v>6</v>
-      </c>
-      <c r="C10" s="52">
-        <v>1649</v>
-      </c>
-      <c r="D10" s="52">
-        <v>2461</v>
-      </c>
-      <c r="E10" s="52">
-        <v>2633</v>
-      </c>
-      <c r="F10" s="53">
-        <v>5094</v>
-      </c>
-      <c r="H10" s="4"/>
-      <c r="I10" s="9" t="s">
-        <v>6</v>
-      </c>
-      <c r="J10" s="52">
-        <v>2110</v>
-      </c>
-      <c r="K10" s="52">
-        <v>3499</v>
-      </c>
-      <c r="L10" s="52">
-        <v>3586</v>
-      </c>
-      <c r="M10" s="8">
-        <v>7085</v>
-      </c>
-    </row>
-    <row r="11" spans="1:14" ht="18.75" customHeight="1">
-      <c r="A11" s="10" t="s">
-        <v>11</v>
-      </c>
-      <c r="B11" s="5" t="s">
-        <v>8</v>
-      </c>
-      <c r="C11" s="52">
-        <v>22</v>
-      </c>
-      <c r="D11" s="52">
-        <v>14</v>
-      </c>
-      <c r="E11" s="52">
-        <v>26</v>
-      </c>
-      <c r="F11" s="53">
-        <v>40</v>
-      </c>
-      <c r="H11" s="10" t="s">
-        <v>12</v>
-      </c>
-      <c r="I11" s="9" t="s">
-        <v>8</v>
-      </c>
-      <c r="J11" s="52">
-        <v>47</v>
-      </c>
-      <c r="K11" s="52">
-        <v>9</v>
-      </c>
-      <c r="L11" s="52">
-        <v>52</v>
-      </c>
-      <c r="M11" s="8">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="12" spans="1:14" ht="18.75" customHeight="1">
-      <c r="A12" s="10"/>
-      <c r="B12" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="C12" s="8">
-        <v>1671</v>
-      </c>
-      <c r="D12" s="8">
-        <v>2475</v>
-      </c>
-      <c r="E12" s="8">
-        <v>2659</v>
-      </c>
-      <c r="F12" s="8">
-        <v>5134</v>
-      </c>
-      <c r="H12" s="11"/>
-      <c r="I12" s="9" t="s">
-        <v>10</v>
-      </c>
-      <c r="J12" s="8">
-        <v>2157</v>
-      </c>
-      <c r="K12" s="8">
-        <v>3508</v>
-      </c>
-      <c r="L12" s="8">
-        <v>3638</v>
-      </c>
-      <c r="M12" s="8">
-        <v>7146</v>
-      </c>
-    </row>
-    <row r="13" spans="1:14" ht="18.75" customHeight="1">
-      <c r="A13" s="4"/>
-      <c r="B13" s="5" t="s">
-        <v>6</v>
-      </c>
-      <c r="C13" s="52">
-        <v>5245</v>
-      </c>
-      <c r="D13" s="52">
-        <v>7382</v>
-      </c>
-      <c r="E13" s="52">
-        <v>7765</v>
-      </c>
-      <c r="F13" s="8">
-        <v>15147</v>
-      </c>
-      <c r="H13" s="4"/>
-      <c r="I13" s="9" t="s">
-        <v>6</v>
-      </c>
-      <c r="J13" s="52">
-        <v>1568</v>
-      </c>
-      <c r="K13" s="52">
-        <v>2254</v>
-      </c>
-      <c r="L13" s="52">
-        <v>2397</v>
-      </c>
-      <c r="M13" s="8">
-        <v>4651</v>
-      </c>
-    </row>
-    <row r="14" spans="1:14" ht="18.75" customHeight="1">
-      <c r="A14" s="10" t="s">
-        <v>13</v>
-      </c>
-      <c r="B14" s="5" t="s">
-        <v>8</v>
-      </c>
-      <c r="C14" s="52">
-        <v>129</v>
-      </c>
-      <c r="D14" s="52">
-        <v>85</v>
-      </c>
-      <c r="E14" s="52">
-        <v>161</v>
-      </c>
-      <c r="F14" s="8">
-        <v>246</v>
-      </c>
-      <c r="H14" s="10" t="s">
-        <v>14</v>
-      </c>
-      <c r="I14" s="9" t="s">
-        <v>8</v>
-      </c>
-      <c r="J14" s="52">
-        <v>35</v>
-      </c>
-      <c r="K14" s="52">
-        <v>13</v>
-      </c>
-      <c r="L14" s="52">
-        <v>32</v>
-      </c>
-      <c r="M14" s="8">
-        <v>45</v>
-      </c>
-      <c r="N14" s="12"/>
-    </row>
-    <row r="15" spans="1:14" ht="18.75" customHeight="1">
-      <c r="A15" s="11"/>
-      <c r="B15" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="C15" s="8">
-        <v>5374</v>
-      </c>
-      <c r="D15" s="8">
-        <v>7467</v>
-      </c>
-      <c r="E15" s="8">
-        <v>7926</v>
-      </c>
-      <c r="F15" s="8">
-        <v>15393</v>
-      </c>
-      <c r="H15" s="11"/>
-      <c r="I15" s="9" t="s">
-        <v>10</v>
-      </c>
-      <c r="J15" s="8">
-        <v>1603</v>
-      </c>
-      <c r="K15" s="8">
-        <v>2267</v>
-      </c>
-      <c r="L15" s="8">
-        <v>2429</v>
-      </c>
-      <c r="M15" s="8">
-        <v>4696</v>
-      </c>
-    </row>
-    <row r="16" spans="1:14" ht="18.75" customHeight="1">
-      <c r="A16" s="10"/>
-      <c r="B16" s="5" t="s">
-        <v>6</v>
-      </c>
-      <c r="C16" s="52">
-        <v>1250</v>
-      </c>
-      <c r="D16" s="52">
-        <v>2113</v>
-      </c>
-      <c r="E16" s="52">
-        <v>2194</v>
-      </c>
-      <c r="F16" s="8">
-        <v>4307</v>
-      </c>
-      <c r="H16" s="4"/>
-      <c r="I16" s="9" t="s">
-        <v>6</v>
-      </c>
-      <c r="J16" s="52">
-        <v>797</v>
-      </c>
-      <c r="K16" s="52">
-        <v>1390</v>
-      </c>
-      <c r="L16" s="52">
-        <v>1551</v>
-      </c>
-      <c r="M16" s="8">
-        <v>2941</v>
-      </c>
-    </row>
-    <row r="17" spans="1:13" ht="18.75" customHeight="1">
-      <c r="A17" s="10" t="s">
-        <v>15</v>
-      </c>
-      <c r="B17" s="5" t="s">
-        <v>8</v>
-      </c>
-      <c r="C17" s="52">
-        <v>12</v>
-      </c>
-      <c r="D17" s="52">
-        <v>15</v>
-      </c>
-      <c r="E17" s="52">
-        <v>13</v>
-      </c>
-      <c r="F17" s="53">
-        <v>28</v>
-      </c>
-      <c r="H17" s="10" t="s">
-        <v>16</v>
-      </c>
-      <c r="I17" s="9" t="s">
-        <v>8</v>
-      </c>
-      <c r="J17" s="52">
-        <v>5</v>
-      </c>
-      <c r="K17" s="52">
-        <v>5</v>
-      </c>
-      <c r="L17" s="52">
-        <v>6</v>
-      </c>
-      <c r="M17" s="8">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="18" spans="1:13" ht="18.75" customHeight="1">
-      <c r="A18" s="10"/>
-      <c r="B18" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="C18" s="8">
-        <v>1262</v>
-      </c>
-      <c r="D18" s="8">
-        <v>2128</v>
-      </c>
-      <c r="E18" s="8">
-        <v>2207</v>
-      </c>
-      <c r="F18" s="8">
-        <v>4335</v>
-      </c>
-      <c r="H18" s="11"/>
-      <c r="I18" s="9" t="s">
-        <v>10</v>
-      </c>
-      <c r="J18" s="8">
-        <v>802</v>
-      </c>
-      <c r="K18" s="8">
-        <v>1395</v>
-      </c>
-      <c r="L18" s="8">
-        <v>1557</v>
-      </c>
-      <c r="M18" s="8">
-        <v>2952</v>
-      </c>
-    </row>
-    <row r="19" spans="1:13" ht="18.75" customHeight="1">
-      <c r="A19" s="4"/>
-      <c r="B19" s="5" t="s">
-        <v>6</v>
-      </c>
-      <c r="C19" s="52">
-        <v>602</v>
-      </c>
-      <c r="D19" s="52">
-        <v>1007</v>
-      </c>
-      <c r="E19" s="52">
-        <v>1051</v>
-      </c>
-      <c r="F19" s="8">
-        <v>2058</v>
-      </c>
-      <c r="H19" s="4"/>
-      <c r="I19" s="9" t="s">
-        <v>6</v>
-      </c>
-      <c r="J19" s="52">
-        <v>1300</v>
-      </c>
-      <c r="K19" s="52">
-        <v>2159</v>
-      </c>
-      <c r="L19" s="52">
-        <v>2253</v>
-      </c>
-      <c r="M19" s="8">
-        <v>4412</v>
-      </c>
-    </row>
-    <row r="20" spans="1:13" ht="18.75" customHeight="1">
-      <c r="A20" s="10" t="s">
-        <v>17</v>
-      </c>
-      <c r="B20" s="5" t="s">
-        <v>8</v>
-      </c>
-      <c r="C20" s="52">
-        <v>0</v>
-      </c>
-      <c r="D20" s="52">
-        <v>1</v>
-      </c>
-      <c r="E20" s="52">
-        <v>9</v>
-      </c>
-      <c r="F20" s="8">
-        <v>10</v>
-      </c>
-      <c r="H20" s="10" t="s">
-        <v>18</v>
-      </c>
-      <c r="I20" s="9" t="s">
-        <v>8</v>
-      </c>
-      <c r="J20" s="52">
-        <v>7</v>
-      </c>
-      <c r="K20" s="52">
-        <v>4</v>
-      </c>
-      <c r="L20" s="52">
-        <v>18</v>
-      </c>
-      <c r="M20" s="8">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="21" spans="1:13" ht="18.75" customHeight="1">
-      <c r="A21" s="11"/>
-      <c r="B21" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="C21" s="8">
-        <v>602</v>
-      </c>
-      <c r="D21" s="8">
-        <v>1008</v>
-      </c>
-      <c r="E21" s="8">
-        <v>1060</v>
-      </c>
-      <c r="F21" s="8">
-        <v>2068</v>
-      </c>
-      <c r="H21" s="11"/>
-      <c r="I21" s="9" t="s">
-        <v>10</v>
-      </c>
-      <c r="J21" s="8">
-        <v>1307</v>
-      </c>
-      <c r="K21" s="8">
-        <v>2163</v>
-      </c>
-      <c r="L21" s="8">
-        <v>2271</v>
-      </c>
-      <c r="M21" s="8">
-        <v>4434</v>
-      </c>
-    </row>
-    <row r="22" spans="1:13" ht="18.75" customHeight="1">
-      <c r="H22" s="4"/>
-      <c r="I22" s="9" t="s">
-        <v>6</v>
-      </c>
-      <c r="J22" s="8">
-        <v>22178</v>
-      </c>
-      <c r="K22" s="8">
-        <v>33122</v>
-      </c>
-      <c r="L22" s="8">
-        <v>34937</v>
-      </c>
-      <c r="M22" s="8">
-        <v>68059</v>
-      </c>
-    </row>
-    <row r="23" spans="1:13" ht="18.75" customHeight="1">
-      <c r="H23" s="10" t="s">
-        <v>5</v>
-      </c>
-      <c r="I23" s="9" t="s">
-        <v>8</v>
-      </c>
-      <c r="J23" s="8">
-        <v>432</v>
-      </c>
-      <c r="K23" s="8">
-        <v>249</v>
-      </c>
-      <c r="L23" s="8">
-        <v>482</v>
-      </c>
-      <c r="M23" s="8">
-        <v>731</v>
-      </c>
-    </row>
-    <row r="24" spans="1:13" ht="18.75" customHeight="1">
-      <c r="H24" s="11"/>
-      <c r="I24" s="9" t="s">
-        <v>10</v>
-      </c>
-      <c r="J24" s="8">
-        <v>22610</v>
-      </c>
-      <c r="K24" s="8">
-        <v>33371</v>
-      </c>
-      <c r="L24" s="8">
-        <v>35419</v>
-      </c>
-      <c r="M24" s="8">
-        <v>68790</v>
-      </c>
-    </row>
-    <row r="25" spans="1:13" ht="18.75" customHeight="1">
-      <c r="F25" s="13"/>
-      <c r="G25" s="13"/>
-      <c r="H25" s="13"/>
-    </row>
-    <row r="26" spans="1:13" ht="18.75" customHeight="1"/>
-  </sheetData>
-  <mergeCells count="1">
-    <mergeCell ref="A2:M2"/>
-  </mergeCells>
-  <phoneticPr fontId="2"/>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.51200000000000001" footer="0.51200000000000001"/>
+  <pageSetup paperSize="9" orientation="landscape"/>
   <headerFooter alignWithMargins="0"/>
 </worksheet>
 </file>